--- a/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
+++ b/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>I [mA]</t>
+          <t>I [A]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6.02</v>
+        <v>0.01</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7.09</v>
+        <v>0.01</v>
       </c>
       <c r="C14" t="n">
         <v>40</v>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7.82</v>
+        <v>0.01</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>8.33</v>
+        <v>0.01</v>
       </c>
       <c r="C16" t="n">
         <v>60</v>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>8.69</v>
+        <v>0.01</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -928,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>8.949999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>9.15</v>
+        <v>0.01</v>
       </c>
       <c r="C19" t="n">
         <v>90</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>9.289999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>

--- a/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
+++ b/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
@@ -493,14 +493,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(500-19894.37j)</t>
+          <t>(500-19894.368j)</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>500</v>
       </c>
       <c r="H2" t="n">
-        <v>-19894.37</v>
+        <v>-19894.368</v>
       </c>
     </row>
     <row r="3">
@@ -508,27 +508,27 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-87.12</v>
+        <v>-87.122</v>
       </c>
       <c r="E3" t="n">
-        <v>9959.74</v>
+        <v>9959.742</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(500-9947.18j)</t>
+          <t>(500-9947.184j)</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>500</v>
       </c>
       <c r="H3" t="n">
-        <v>-9947.18</v>
+        <v>-9947.183999999999</v>
       </c>
     </row>
     <row r="4">
@@ -536,27 +536,27 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-85.69</v>
+        <v>-85.688</v>
       </c>
       <c r="E4" t="n">
-        <v>6650.28</v>
+        <v>6650.279</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(500-6631.46j)</t>
+          <t>(500-6631.456j)</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>500</v>
       </c>
       <c r="H4" t="n">
-        <v>-6631.46</v>
+        <v>-6631.456</v>
       </c>
     </row>
     <row r="5">
@@ -564,27 +564,27 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-84.26000000000001</v>
+        <v>-84.259</v>
       </c>
       <c r="E5" t="n">
-        <v>4998.66</v>
+        <v>4998.662</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(500-4973.59j)</t>
+          <t>(500-4973.592j)</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>500</v>
       </c>
       <c r="H5" t="n">
-        <v>-4973.59</v>
+        <v>-4973.592</v>
       </c>
     </row>
     <row r="6">
@@ -592,27 +592,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-82.84</v>
+        <v>-82.83799999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>4010.17</v>
+        <v>4010.166</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(500-3978.87j)</t>
+          <t>(500-3978.874j)</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>500</v>
       </c>
       <c r="H6" t="n">
-        <v>-3978.87</v>
+        <v>-3978.874</v>
       </c>
     </row>
     <row r="7">
@@ -620,27 +620,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-81.42</v>
+        <v>-81.425</v>
       </c>
       <c r="E7" t="n">
-        <v>3353.22</v>
+        <v>3353.215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(500-3315.73j)</t>
+          <t>(500-3315.728j)</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>500</v>
       </c>
       <c r="H7" t="n">
-        <v>-3315.73</v>
+        <v>-3315.728</v>
       </c>
     </row>
     <row r="8">
@@ -648,27 +648,27 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>-80.02</v>
+        <v>-80.02200000000001</v>
       </c>
       <c r="E8" t="n">
         <v>2885.7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(500-2842.05j)</t>
+          <t>(500-2842.053j)</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>500</v>
       </c>
       <c r="H8" t="n">
-        <v>-2842.05</v>
+        <v>-2842.053</v>
       </c>
     </row>
     <row r="9">
@@ -676,27 +676,27 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>-78.63</v>
+        <v>-78.63200000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>2536.56</v>
+        <v>2536.563</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(500-2486.8j)</t>
+          <t>(500-2486.796j)</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>500</v>
       </c>
       <c r="H9" t="n">
-        <v>-2486.8</v>
+        <v>-2486.796</v>
       </c>
     </row>
     <row r="10">
@@ -704,27 +704,27 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>-77.25</v>
+        <v>-77.254</v>
       </c>
       <c r="E10" t="n">
-        <v>2266.33</v>
+        <v>2266.329</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(500-2210.49j)</t>
+          <t>(500-2210.485j)</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>500</v>
       </c>
       <c r="H10" t="n">
-        <v>-2210.49</v>
+        <v>-2210.485</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,27 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>-75.89</v>
+        <v>-75.892</v>
       </c>
       <c r="E11" t="n">
-        <v>2051.31</v>
+        <v>2051.307</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(500-1989.44j)</t>
+          <t>(500-1989.437j)</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>500</v>
       </c>
       <c r="H11" t="n">
-        <v>-1989.44</v>
+        <v>-1989.437</v>
       </c>
     </row>
     <row r="12">
@@ -760,27 +760,27 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>-63.31</v>
+        <v>-63.313</v>
       </c>
       <c r="E12" t="n">
-        <v>1113.31</v>
+        <v>1113.312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(500-994.72j)</t>
+          <t>(500-994.718j)</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>500</v>
       </c>
       <c r="H12" t="n">
-        <v>-994.72</v>
+        <v>-994.718</v>
       </c>
     </row>
     <row r="13">
@@ -788,27 +788,27 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.98</v>
+        <v>-52.984</v>
       </c>
       <c r="E13" t="n">
-        <v>830.52</v>
+        <v>830.519</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(500-663.15j)</t>
+          <t>(500-663.146j)</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>500</v>
       </c>
       <c r="H13" t="n">
-        <v>-663.15</v>
+        <v>-663.146</v>
       </c>
     </row>
     <row r="14">
@@ -816,27 +816,27 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="C14" t="n">
         <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>-44.85</v>
+        <v>-44.848</v>
       </c>
       <c r="E14" t="n">
-        <v>705.24</v>
+        <v>705.242</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(500-497.36j)</t>
+          <t>(500-497.359j)</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>500</v>
       </c>
       <c r="H14" t="n">
-        <v>-497.36</v>
+        <v>-497.359</v>
       </c>
     </row>
     <row r="15">
@@ -844,27 +844,27 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>-38.51</v>
+        <v>-38.512</v>
       </c>
       <c r="E15" t="n">
-        <v>638.99</v>
+        <v>638.995</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(500-397.89j)</t>
+          <t>(500-397.887j)</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>500</v>
       </c>
       <c r="H15" t="n">
-        <v>-397.89</v>
+        <v>-397.887</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="C16" t="n">
         <v>60</v>
@@ -885,14 +885,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(500-331.57j)</t>
+          <t>(500-331.573j)</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>500</v>
       </c>
       <c r="H16" t="n">
-        <v>-331.57</v>
+        <v>-331.573</v>
       </c>
     </row>
     <row r="17">
@@ -900,27 +900,27 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>-29.61</v>
+        <v>-29.614</v>
       </c>
       <c r="E17" t="n">
-        <v>575.13</v>
+        <v>575.128</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(500-284.21j)</t>
+          <t>(500-284.205j)</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>500</v>
       </c>
       <c r="H17" t="n">
-        <v>-284.21</v>
+        <v>-284.205</v>
       </c>
     </row>
     <row r="18">
@@ -928,16 +928,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
       </c>
       <c r="D18" t="n">
-        <v>-26.44</v>
+        <v>-26.444</v>
       </c>
       <c r="E18" t="n">
-        <v>558.4299999999999</v>
+        <v>558.428</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>90</v>
@@ -965,18 +965,18 @@
         <v>-23.85</v>
       </c>
       <c r="E19" t="n">
-        <v>546.6799999999999</v>
+        <v>546.683</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(500-221.05j)</t>
+          <t>(500-221.049j)</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>500</v>
       </c>
       <c r="H19" t="n">
-        <v>-221.05</v>
+        <v>-221.049</v>
       </c>
     </row>
     <row r="20">
@@ -984,27 +984,27 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>-21.7</v>
+        <v>-21.697</v>
       </c>
       <c r="E20" t="n">
-        <v>538.13</v>
+        <v>538.125</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(500-198.94j)</t>
+          <t>(500-198.944j)</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>500</v>
       </c>
       <c r="H20" t="n">
-        <v>-198.94</v>
+        <v>-198.944</v>
       </c>
     </row>
   </sheetData>

--- a/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
+++ b/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>U [V]</t>
+          <t>U_[V]</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>I [A]</t>
+          <t>I_[A]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>F  [Hz]</t>
+          <t>F_[Hz]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Phi [°]</t>
+          <t>φ_[°]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Z (abs) [Ω]</t>
+          <t>|Z|_[Ω]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Z [Ω]</t>
+          <t>Z_[Ω]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R [Ω]</t>
+          <t>R_[Ω]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>X [Ω]</t>
+          <t>X_[Ω]</t>
         </is>
       </c>
     </row>
@@ -480,27 +480,27 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.14e-05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-88.56</v>
+        <v>-89.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>19900.65</v>
+        <v>159000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(500-19894.368j)</t>
+          <t>(1000-159000j)</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>-19894.368</v>
+        <v>-159000</v>
       </c>
     </row>
     <row r="3">
@@ -508,27 +508,27 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001</v>
+        <v>0.000157</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-87.122</v>
+        <v>-88.2</v>
       </c>
       <c r="E3" t="n">
-        <v>9959.742</v>
+        <v>31800</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(500-9947.184j)</t>
+          <t>(1000-31800j)</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>-9947.183999999999</v>
+        <v>-31800</v>
       </c>
     </row>
     <row r="4">
@@ -536,27 +536,27 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001</v>
+        <v>0.000314</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>-85.688</v>
+        <v>-86.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>6650.279</v>
+        <v>15900</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(500-6631.456j)</t>
+          <t>(1000-15900j)</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>-6631.456</v>
+        <v>-15900</v>
       </c>
     </row>
     <row r="5">
@@ -564,27 +564,27 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001</v>
+        <v>0.000469</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-84.259</v>
+        <v>-84.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>4998.662</v>
+        <v>10700</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(500-4973.592j)</t>
+          <t>(1000-10600j)</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>-4973.592</v>
+        <v>-10600</v>
       </c>
     </row>
     <row r="6">
@@ -592,27 +592,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001</v>
+        <v>0.000623</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>-82.83799999999999</v>
+        <v>-82.8</v>
       </c>
       <c r="E6" t="n">
-        <v>4010.166</v>
+        <v>8020</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(500-3978.874j)</t>
+          <t>(1000-7960j)</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>-3978.874</v>
+        <v>-7960</v>
       </c>
     </row>
     <row r="7">
@@ -620,27 +620,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001</v>
+        <v>0.000776</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>-81.425</v>
+        <v>-81.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>3353.215</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(500-3315.728j)</t>
+          <t>(1000-6370j)</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>-3315.728</v>
+        <v>-6370</v>
       </c>
     </row>
     <row r="8">
@@ -648,27 +648,27 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002</v>
+        <v>0.000926</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>-80.02200000000001</v>
+        <v>-79.3</v>
       </c>
       <c r="E8" t="n">
-        <v>2885.7</v>
+        <v>5400</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(500-2842.053j)</t>
+          <t>(1000-5310j)</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>-2842.053</v>
+        <v>-5310</v>
       </c>
     </row>
     <row r="9">
@@ -676,27 +676,27 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002</v>
+        <v>0.00107</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>-78.63200000000001</v>
+        <v>-77.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>2536.563</v>
+        <v>4660</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(500-2486.796j)</t>
+          <t>(1000-4550j)</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>-2486.796</v>
+        <v>-4550</v>
       </c>
     </row>
     <row r="10">
@@ -704,27 +704,27 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002</v>
+        <v>0.00122</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>-77.254</v>
+        <v>-75.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>2266.329</v>
+        <v>4100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(500-2210.485j)</t>
+          <t>(1000-3980j)</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>-2210.485</v>
+        <v>-3980</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,27 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002</v>
+        <v>0.00136</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>-75.892</v>
+        <v>-74.2</v>
       </c>
       <c r="E11" t="n">
-        <v>2051.307</v>
+        <v>3680</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(500-1989.437j)</t>
+          <t>(1000-3540j)</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>-1989.437</v>
+        <v>-3540</v>
       </c>
     </row>
     <row r="12">
@@ -760,27 +760,27 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004</v>
+        <v>0.0015</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>-63.313</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>1113.312</v>
+        <v>3340</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(500-994.718j)</t>
+          <t>(1000-3180j)</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>-994.718</v>
+        <v>-3180</v>
       </c>
     </row>
     <row r="13">
@@ -788,27 +788,27 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006</v>
+        <v>0.00163</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.984</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>830.519</v>
+        <v>3060</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(500-663.146j)</t>
+          <t>(1000-2890j)</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>-663.146</v>
+        <v>-2890</v>
       </c>
     </row>
     <row r="14">
@@ -816,27 +816,27 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007</v>
+        <v>0.00176</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>-44.848</v>
+        <v>-69.3</v>
       </c>
       <c r="E14" t="n">
-        <v>705.242</v>
+        <v>2830</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(500-497.359j)</t>
+          <t>(1000-2650j)</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>-497.359</v>
+        <v>-2650</v>
       </c>
     </row>
     <row r="15">
@@ -844,27 +844,27 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008</v>
+        <v>0.00189</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D15" t="n">
-        <v>-38.512</v>
+        <v>-67.8</v>
       </c>
       <c r="E15" t="n">
-        <v>638.995</v>
+        <v>2640</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(500-397.887j)</t>
+          <t>(1000-2450j)</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>-397.887</v>
+        <v>-2450</v>
       </c>
     </row>
     <row r="16">
@@ -872,27 +872,27 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>0.008</v>
+        <v>0.00201</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D16" t="n">
-        <v>-33.55</v>
+        <v>-66.3</v>
       </c>
       <c r="E16" t="n">
-        <v>599.95</v>
+        <v>2480</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(500-331.573j)</t>
+          <t>(1000-2270j)</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>-331.573</v>
+        <v>-2270</v>
       </c>
     </row>
     <row r="17">
@@ -900,27 +900,27 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.00213</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
-        <v>-29.614</v>
+        <v>-64.8</v>
       </c>
       <c r="E17" t="n">
-        <v>575.128</v>
+        <v>2350</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(500-284.205j)</t>
+          <t>(1000-2120j)</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>-284.205</v>
+        <v>-2120</v>
       </c>
     </row>
     <row r="18">
@@ -928,27 +928,27 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.00225</v>
       </c>
       <c r="C18" t="n">
         <v>80</v>
       </c>
       <c r="D18" t="n">
-        <v>-26.444</v>
+        <v>-63.3</v>
       </c>
       <c r="E18" t="n">
-        <v>558.428</v>
+        <v>2230</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(500-248.68j)</t>
+          <t>(1000-1990j)</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>-248.68</v>
+        <v>-1990</v>
       </c>
     </row>
     <row r="19">
@@ -956,27 +956,27 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.00236</v>
       </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
-        <v>-23.85</v>
+        <v>-61.9</v>
       </c>
       <c r="E19" t="n">
-        <v>546.683</v>
+        <v>2120</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(500-221.049j)</t>
+          <t>(1000-1870j)</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>-221.049</v>
+        <v>-1870</v>
       </c>
     </row>
     <row r="20">
@@ -984,27 +984,5095 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.00246</v>
       </c>
       <c r="C20" t="n">
+        <v>90</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-60.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(1000-1770j)</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1770</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="C21" t="n">
+        <v>95</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-59.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(1000-1680j)</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1680</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.00266</v>
+      </c>
+      <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D20" t="n">
-        <v>-21.697</v>
-      </c>
-      <c r="E20" t="n">
-        <v>538.125</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>(500-198.944j)</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="D22" t="n">
+        <v>-57.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(1000-1590j)</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1590</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>105</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-56.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1820</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(1000-1520j)</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1520</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="C24" t="n">
+        <v>110</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-55.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1760</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(1000-1450j)</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.00293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-54.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(1000-1380j)</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="C26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(1000-1330j)</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.00309</v>
+      </c>
+      <c r="C27" t="n">
+        <v>125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-51.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(1000-1270j)</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00316</v>
+      </c>
+      <c r="C28" t="n">
+        <v>130</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-50.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1580</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(1000-1220j)</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.00323</v>
+      </c>
+      <c r="C29" t="n">
+        <v>135</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-49.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(1000-1180j)</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="C30" t="n">
+        <v>140</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-48.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(1000-1140j)</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1140</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="C31" t="n">
+        <v>145</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-47.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(1000-1100j)</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="C32" t="n">
+        <v>150</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-46.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1460</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(1000-1060j)</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1060</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="C33" t="n">
+        <v>155</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-45.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(1000-1030j)</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1030</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="C34" t="n">
+        <v>160</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-44.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(1000-995j)</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-995</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="C35" t="n">
+        <v>165</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(1000-965j)</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-965</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00365</v>
+      </c>
+      <c r="C36" t="n">
+        <v>170</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-43.1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1370</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(1000-936j)</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-936</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="C37" t="n">
+        <v>175</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(1000-909j)</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-909</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1330</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(1000-884j)</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-884</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.00379</v>
+      </c>
+      <c r="C39" t="n">
+        <v>185</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-40.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1320</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(1000-860j)</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-860</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.00383</v>
+      </c>
+      <c r="C40" t="n">
+        <v>190</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(1000-838j)</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="C41" t="n">
+        <v>195</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(1000-816j)</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-816</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.00391</v>
+      </c>
+      <c r="C42" t="n">
+        <v>200</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1280</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(1000-796j)</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-796</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.00395</v>
+      </c>
+      <c r="C43" t="n">
+        <v>205</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-37.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(1000-776j)</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-776</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.00398</v>
+      </c>
+      <c r="C44" t="n">
+        <v>210</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(1000-758j)</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-758</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="C45" t="n">
+        <v>215</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(1000-740j)</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-740</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="C46" t="n">
+        <v>220</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-35.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(1000-723j)</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-723</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="C47" t="n">
+        <v>225</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(1000-707j)</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-707</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.00411</v>
+      </c>
+      <c r="C48" t="n">
+        <v>230</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(1000-692j)</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-692</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="C49" t="n">
+        <v>235</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(1000-677j)</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-677</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.00417</v>
+      </c>
+      <c r="C50" t="n">
+        <v>240</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(1000-663j)</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-663</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.00419</v>
+      </c>
+      <c r="C51" t="n">
+        <v>245</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-33</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(1000-650j)</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="C52" t="n">
+        <v>250</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(1000-637j)</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-637</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="C53" t="n">
+        <v>255</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(1000-624j)</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-624</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.00426</v>
+      </c>
+      <c r="C54" t="n">
+        <v>260</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(1000-612j)</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-612</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.00429</v>
+      </c>
+      <c r="C55" t="n">
+        <v>265</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-31</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(1000-601j)</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-601</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="C56" t="n">
+        <v>270</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(1000-589j)</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-589</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.00433</v>
+      </c>
+      <c r="C57" t="n">
+        <v>275</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(1000-579j)</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-579</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="C58" t="n">
+        <v>280</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(1000-568j)</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-568</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="C59" t="n">
+        <v>285</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(1000-558j)</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-558</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="C60" t="n">
+        <v>290</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(1000-549j)</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-549</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="C61" t="n">
+        <v>295</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1140</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(1000-540j)</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.00442</v>
+      </c>
+      <c r="C62" t="n">
+        <v>300</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(1000-531j)</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-531</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.00443</v>
+      </c>
+      <c r="C63" t="n">
+        <v>305</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(1000-522j)</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.00445</v>
+      </c>
+      <c r="C64" t="n">
+        <v>310</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(1000-513j)</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.00446</v>
+      </c>
+      <c r="C65" t="n">
+        <v>315</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(1000-505j)</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.00448</v>
+      </c>
+      <c r="C66" t="n">
+        <v>320</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(1000-497j)</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.00449</v>
+      </c>
+      <c r="C67" t="n">
+        <v>325</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(1000-490j)</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-490</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C68" t="n">
+        <v>330</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(1000-482j)</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.00452</v>
+      </c>
+      <c r="C69" t="n">
+        <v>335</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(1000-475j)</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-475</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.00453</v>
+      </c>
+      <c r="C70" t="n">
+        <v>340</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(1000-468j)</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.00454</v>
+      </c>
+      <c r="C71" t="n">
+        <v>345</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(1000-461j)</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.00455</v>
+      </c>
+      <c r="C72" t="n">
+        <v>350</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(1000-455j)</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.00456</v>
+      </c>
+      <c r="C73" t="n">
+        <v>355</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(1000-448j)</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-448</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00457</v>
+      </c>
+      <c r="C74" t="n">
+        <v>360</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>(1000-442j)</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-442</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.00458</v>
+      </c>
+      <c r="C75" t="n">
+        <v>365</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>(1000-436j)</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-436</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="C76" t="n">
+        <v>370</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>(1000-430j)</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="C77" t="n">
+        <v>375</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-23</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1090</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>(1000-424j)</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-424</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00461</v>
+      </c>
+      <c r="C78" t="n">
+        <v>380</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>(1000-419j)</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-419</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.00462</v>
+      </c>
+      <c r="C79" t="n">
+        <v>385</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>(1000-413j)</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-413</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="C80" t="n">
+        <v>390</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>(1000-408j)</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="C81" t="n">
+        <v>395</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>(1000-403j)</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="C82" t="n">
+        <v>400</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>(1000-398j)</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="C83" t="n">
+        <v>405</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>(1000-393j)</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.00466</v>
+      </c>
+      <c r="C84" t="n">
+        <v>410</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>(1000-388j)</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-388</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.00467</v>
+      </c>
+      <c r="C85" t="n">
+        <v>415</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-21</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>(1000-384j)</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.00468</v>
+      </c>
+      <c r="C86" t="n">
+        <v>420</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>(1000-379j)</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-379</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.00468</v>
+      </c>
+      <c r="C87" t="n">
+        <v>425</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>(1000-374j)</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-374</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.00469</v>
+      </c>
+      <c r="C88" t="n">
+        <v>430</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>(1000-370j)</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="C89" t="n">
+        <v>435</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>(1000-366j)</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="C90" t="n">
+        <v>440</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>(1000-362j)</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-362</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="C91" t="n">
+        <v>445</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>(1000-358j)</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-358</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="C92" t="n">
+        <v>450</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>(1000-354j)</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-354</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="C93" t="n">
+        <v>455</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>(1000-350j)</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.00473</v>
+      </c>
+      <c r="C94" t="n">
+        <v>460</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>(1000-346j)</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-346</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.00473</v>
+      </c>
+      <c r="C95" t="n">
+        <v>465</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>(1000-342j)</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-342</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.00474</v>
+      </c>
+      <c r="C96" t="n">
+        <v>470</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1060</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>(1000-339j)</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.00474</v>
+      </c>
+      <c r="C97" t="n">
+        <v>475</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>(1000-335j)</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-335</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="C98" t="n">
+        <v>480</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-18.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>(1000-332j)</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="C99" t="n">
+        <v>485</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>(1000-328j)</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-328</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="C100" t="n">
+        <v>490</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>(1000-325j)</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="C101" t="n">
+        <v>495</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>(1000-322j)</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-322</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="C102" t="n">
         <v>500</v>
       </c>
-      <c r="H20" t="n">
-        <v>-198.944</v>
+      <c r="D102" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>(1000-318j)</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.00477</v>
+      </c>
+      <c r="C103" t="n">
+        <v>505</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>(1000-315j)</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.00477</v>
+      </c>
+      <c r="C104" t="n">
+        <v>510</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>(1000-312j)</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-312</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="C105" t="n">
+        <v>515</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>(1000-309j)</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="C106" t="n">
+        <v>520</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>(1000-306j)</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-306</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="C107" t="n">
+        <v>525</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>(1000-303j)</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-303</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="C108" t="n">
+        <v>530</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>(1000-300j)</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="C109" t="n">
+        <v>535</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>(1000-297j)</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="C110" t="n">
+        <v>540</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>(1000-295j)</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="C111" t="n">
+        <v>545</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>(1000-292j)</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-292</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="C112" t="n">
+        <v>550</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>(1000-289j)</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-289</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00481</v>
+      </c>
+      <c r="C113" t="n">
+        <v>555</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>(1000-287j)</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-287</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00481</v>
+      </c>
+      <c r="C114" t="n">
+        <v>560</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>(1000-284j)</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-284</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.00481</v>
+      </c>
+      <c r="C115" t="n">
+        <v>565</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>(1000-282j)</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-282</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="C116" t="n">
+        <v>570</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>(1000-279j)</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-279</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="C117" t="n">
+        <v>575</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>(1000-277j)</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-277</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="C118" t="n">
+        <v>580</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>(1000-274j)</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="C119" t="n">
+        <v>585</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>(1000-272j)</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-272</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="C120" t="n">
+        <v>590</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>(1000-270j)</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="C121" t="n">
+        <v>595</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>(1000-267j)</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="C122" t="n">
+        <v>600</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>(1000-265j)</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-265</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.00484</v>
+      </c>
+      <c r="C123" t="n">
+        <v>605</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>(1000-263j)</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-263</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.00484</v>
+      </c>
+      <c r="C124" t="n">
+        <v>610</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>(1000-261j)</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-261</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.00484</v>
+      </c>
+      <c r="C125" t="n">
+        <v>615</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>(1000-259j)</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-259</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.00484</v>
+      </c>
+      <c r="C126" t="n">
+        <v>620</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>(1000-257j)</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-257</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="C127" t="n">
+        <v>625</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>(1000-255j)</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="C128" t="n">
+        <v>630</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>(1000-253j)</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="C129" t="n">
+        <v>635</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>(1000-251j)</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="C130" t="n">
+        <v>640</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>(1000-249j)</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="C131" t="n">
+        <v>645</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>(1000-247j)</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="C132" t="n">
+        <v>650</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>(1000-245j)</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>5</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="C133" t="n">
+        <v>655</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>(1000-243j)</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>5</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="C134" t="n">
+        <v>660</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>(1000-241j)</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>5</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="C135" t="n">
+        <v>665</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>(1000-239j)</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="C136" t="n">
+        <v>670</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>(1000-238j)</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>5</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="C137" t="n">
+        <v>675</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>(1000-236j)</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="C138" t="n">
+        <v>680</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>(1000-234j)</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>5</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="C139" t="n">
+        <v>685</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>(1000-232j)</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="C140" t="n">
+        <v>690</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>(1000-231j)</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-231</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="C141" t="n">
+        <v>695</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>(1000-229j)</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-229</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C142" t="n">
+        <v>700</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>(1000-227j)</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C143" t="n">
+        <v>705</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>(1000-226j)</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-226</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C144" t="n">
+        <v>710</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>(1000-224j)</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>5</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C145" t="n">
+        <v>715</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>(1000-223j)</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C146" t="n">
+        <v>720</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>(1000-221j)</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="C147" t="n">
+        <v>725</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>(1000-220j)</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C148" t="n">
+        <v>730</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>(1000-218j)</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C149" t="n">
+        <v>735</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>(1000-217j)</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C150" t="n">
+        <v>740</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>(1000-215j)</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C151" t="n">
+        <v>745</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>(1000-214j)</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C152" t="n">
+        <v>750</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>(1000-212j)</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>5</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C153" t="n">
+        <v>755</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>(1000-211j)</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-211</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="C154" t="n">
+        <v>760</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>(1000-209j)</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C155" t="n">
+        <v>765</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>(1000-208j)</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C156" t="n">
+        <v>770</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>(1000-207j)</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C157" t="n">
+        <v>775</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>(1000-205j)</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C158" t="n">
+        <v>780</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>(1000-204j)</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C159" t="n">
+        <v>785</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>(1000-203j)</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C160" t="n">
+        <v>790</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>(1000-201j)</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C161" t="n">
+        <v>795</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>(1000-200j)</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="C162" t="n">
+        <v>800</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>(1000-199j)</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C163" t="n">
+        <v>805</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>(1000-198j)</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C164" t="n">
+        <v>810</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-11.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>(1000-196j)</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C165" t="n">
+        <v>815</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>(1000-195j)</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C166" t="n">
+        <v>820</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>(1000-194j)</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C167" t="n">
+        <v>825</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>(1000-193j)</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C168" t="n">
+        <v>830</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>(1000-192j)</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C169" t="n">
+        <v>835</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>(1000-191j)</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C170" t="n">
+        <v>840</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>(1000-189j)</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C171" t="n">
+        <v>845</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>(1000-188j)</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="C172" t="n">
+        <v>850</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>(1000-187j)</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C173" t="n">
+        <v>855</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>(1000-186j)</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-186</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C174" t="n">
+        <v>860</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>(1000-185j)</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C175" t="n">
+        <v>865</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>(1000-184j)</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-184</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C176" t="n">
+        <v>870</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>(1000-183j)</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>5</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C177" t="n">
+        <v>875</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>(1000-182j)</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C178" t="n">
+        <v>880</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>(1000-181j)</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-181</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>5</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C179" t="n">
+        <v>885</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>(1000-180j)</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C180" t="n">
+        <v>890</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>(1000-179j)</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>5</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C181" t="n">
+        <v>895</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>(1000-178j)</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>5</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C182" t="n">
+        <v>900</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>(1000-177j)</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>5</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="C183" t="n">
+        <v>905</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>(1000-176j)</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>5</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C184" t="n">
+        <v>910</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>(1000-175j)</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>5</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C185" t="n">
+        <v>915</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1020</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>(1000-174j)</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C186" t="n">
+        <v>920</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-9.81</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>(1000-173j)</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-173</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>5</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C187" t="n">
+        <v>925</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>(1000-172j)</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-172</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>5</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C188" t="n">
+        <v>930</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>(1000-171j)</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C189" t="n">
+        <v>935</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>(1000-170j)</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C190" t="n">
+        <v>940</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>(1000-169j)</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C191" t="n">
+        <v>945</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>(1000-168j)</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C192" t="n">
+        <v>950</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>(1000-168j)</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C193" t="n">
+        <v>955</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>(1000-167j)</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C194" t="n">
+        <v>960</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>(1000-166j)</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C195" t="n">
+        <v>965</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>(1000-165j)</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C196" t="n">
+        <v>970</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-9.32</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>(1000-164j)</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>5</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="C197" t="n">
+        <v>975</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-9.27</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>(1000-163j)</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="C198" t="n">
+        <v>980</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>(1000-162j)</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>5</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="C199" t="n">
+        <v>985</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-9.18</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>(1000-162j)</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>5</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="C200" t="n">
+        <v>990</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-9.130000000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>(1000-161j)</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="C201" t="n">
+        <v>995</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>(1000-160j)</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-160</v>
       </c>
     </row>
   </sheetData>

--- a/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
+++ b/MSO5000 LCR/Data/Clean_Calc_Rounded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>U_[V]</t>
+          <t>Ue_[V]</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>I_[A]</t>
+          <t>Ua_[V]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Ie_[A]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>F_[Hz]</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>φ_[°]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>|Z|_[Ω]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Z_[Ω]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>R_[Ω]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>X_[Ω]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>H_[1]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>H_[db]</t>
         </is>
       </c>
     </row>
@@ -480,27 +495,36 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>3.14e-05</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-89.59999999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>159000</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>(1000-159000j)</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1000</v>
-      </c>
       <c r="H2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="n">
         <v>-159000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.000171</v>
       </c>
     </row>
     <row r="3">
@@ -508,27 +532,36 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.000157</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
       <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
         <v>-88.2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>31800</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>(1000-31800j)</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1000</v>
-      </c>
       <c r="H3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I3" t="n">
         <v>-31800</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.00428</v>
       </c>
     </row>
     <row r="4">
@@ -536,27 +569,36 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.000314</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-86.40000000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>15900</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>(1000-15900j)</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
       <c r="H4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="n">
         <v>-15900</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.0171</v>
       </c>
     </row>
     <row r="5">
@@ -564,27 +606,36 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.000469</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-84.59999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>10700</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>(1000-10600j)</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
       <c r="H5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I5" t="n">
         <v>-10600</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0384</v>
       </c>
     </row>
     <row r="6">
@@ -592,27 +643,36 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.000623</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-82.8</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8020</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>(1000-7960j)</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
       <c r="H6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="n">
         <v>-7960</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.068</v>
       </c>
     </row>
     <row r="7">
@@ -620,27 +680,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.000776</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-81.09999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6440</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>(1000-6370j)</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1000</v>
-      </c>
       <c r="H7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I7" t="n">
         <v>-6370</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.106</v>
       </c>
     </row>
     <row r="8">
@@ -648,27 +717,36 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.000926</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-79.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5400</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>(1000-5310j)</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1000</v>
-      </c>
       <c r="H8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="n">
         <v>-5310</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.152</v>
       </c>
     </row>
     <row r="9">
@@ -676,27 +754,36 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.00107</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-77.59999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4660</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>(1000-4550j)</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1000</v>
-      </c>
       <c r="H9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="n">
         <v>-4550</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.205</v>
       </c>
     </row>
     <row r="10">
@@ -704,27 +791,36 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.00122</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-75.90000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4100</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>(1000-3980j)</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1000</v>
-      </c>
       <c r="H10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="n">
         <v>-3980</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.266</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +828,36 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.00136</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>45</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-74.2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3680</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>(1000-3540j)</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
       <c r="H11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="n">
         <v>-3540</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.334</v>
       </c>
     </row>
     <row r="12">
@@ -760,27 +865,36 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.0015</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>50</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-72.59999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3340</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>(1000-3180j)</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1000</v>
-      </c>
       <c r="H12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="n">
         <v>-3180</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.409</v>
       </c>
     </row>
     <row r="13">
@@ -788,27 +902,36 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.00163</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>55</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-70.90000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3060</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>(1000-2890j)</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1000</v>
-      </c>
       <c r="H13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="n">
         <v>-2890</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="14">
@@ -816,27 +939,36 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.00176</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>60</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-69.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2830</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>(1000-2650j)</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1000</v>
-      </c>
       <c r="H14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="n">
         <v>-2650</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.577</v>
       </c>
     </row>
     <row r="15">
@@ -844,27 +976,36 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.00189</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>65</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-67.8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2640</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>(1000-2450j)</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1000</v>
-      </c>
       <c r="H15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" t="n">
         <v>-2450</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="16">
@@ -872,27 +1013,36 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.00201</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>70</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-66.3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2480</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>(1000-2270j)</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
       <c r="H16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" t="n">
         <v>-2270</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.768</v>
       </c>
     </row>
     <row r="17">
@@ -900,27 +1050,36 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.00213</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>75</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-64.8</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2350</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>(1000-2120j)</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1000</v>
-      </c>
       <c r="H17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="n">
         <v>-2120</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.871</v>
       </c>
     </row>
     <row r="18">
@@ -928,27 +1087,36 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.00225</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>80</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-63.3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2230</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>(1000-1990j)</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1000</v>
-      </c>
       <c r="H18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="n">
         <v>-1990</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.978</v>
       </c>
     </row>
     <row r="19">
@@ -956,27 +1124,36 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.00236</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>85</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-61.9</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2120</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>(1000-1870j)</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1000</v>
-      </c>
       <c r="H19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="n">
         <v>-1870</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1.09</v>
       </c>
     </row>
     <row r="20">
@@ -984,27 +1161,36 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.00246</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>90</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-60.5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2030</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>(1000-1770j)</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1000</v>
-      </c>
       <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="n">
         <v>-1770</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="21">
@@ -1012,27 +1198,36 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C21" t="n">
         <v>0.00256</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>95</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-59.2</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1950</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>(1000-1680j)</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
       <c r="H21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="n">
         <v>-1680</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="22">
@@ -1040,27 +1235,36 @@
         <v>5</v>
       </c>
       <c r="B22" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.00266</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>100</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-57.9</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1880</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>(1000-1590j)</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1000</v>
-      </c>
       <c r="H22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="n">
         <v>-1590</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="23">
@@ -1068,27 +1272,36 @@
         <v>5</v>
       </c>
       <c r="B23" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.00275</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>105</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-56.6</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1820</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>(1000-1520j)</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>1000</v>
-      </c>
       <c r="H23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="n">
         <v>-1520</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1.57</v>
       </c>
     </row>
     <row r="24">
@@ -1096,27 +1309,36 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.00284</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>110</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-55.3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1760</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>(1000-1450j)</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1000</v>
-      </c>
       <c r="H24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="n">
         <v>-1450</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="25">
@@ -1124,27 +1346,36 @@
         <v>5</v>
       </c>
       <c r="B25" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.00293</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>115</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-54.1</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1710</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>(1000-1380j)</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1000</v>
-      </c>
       <c r="H25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="n">
         <v>-1380</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="26">
@@ -1152,27 +1383,36 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.00301</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>120</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-53</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1660</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>(1000-1330j)</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>1000</v>
-      </c>
       <c r="H26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="n">
         <v>-1330</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1.95</v>
       </c>
     </row>
     <row r="27">
@@ -1180,27 +1420,36 @@
         <v>5</v>
       </c>
       <c r="B27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.00309</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>125</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-51.9</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1620</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>(1000-1270j)</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>1000</v>
-      </c>
       <c r="H27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="n">
         <v>-1270</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-2.09</v>
       </c>
     </row>
     <row r="28">
@@ -1208,27 +1457,36 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C28" t="n">
         <v>0.00316</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>130</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-50.8</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1580</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>(1000-1220j)</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>1000</v>
-      </c>
       <c r="H28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="n">
         <v>-1220</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-2.22</v>
       </c>
     </row>
     <row r="29">
@@ -1236,27 +1494,36 @@
         <v>5</v>
       </c>
       <c r="B29" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C29" t="n">
         <v>0.00323</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>135</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-49.7</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1550</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>(1000-1180j)</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>1000</v>
-      </c>
       <c r="H29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I29" t="n">
         <v>-1180</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-2.35</v>
       </c>
     </row>
     <row r="30">
@@ -1264,27 +1531,36 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C30" t="n">
         <v>0.0033</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>140</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-48.7</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1510</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>(1000-1140j)</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>1000</v>
-      </c>
       <c r="H30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="n">
         <v>-1140</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-2.49</v>
       </c>
     </row>
     <row r="31">
@@ -1292,27 +1568,36 @@
         <v>5</v>
       </c>
       <c r="B31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.00337</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>145</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-47.7</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1480</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>(1000-1100j)</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>1000</v>
-      </c>
       <c r="H31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I31" t="n">
         <v>-1100</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-2.62</v>
       </c>
     </row>
     <row r="32">
@@ -1320,27 +1605,36 @@
         <v>5</v>
       </c>
       <c r="B32" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="C32" t="n">
         <v>0.00343</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>150</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-46.7</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1460</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>(1000-1060j)</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>1000</v>
-      </c>
       <c r="H32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I32" t="n">
         <v>-1060</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-2.76</v>
       </c>
     </row>
     <row r="33">
@@ -1348,27 +1642,36 @@
         <v>5</v>
       </c>
       <c r="B33" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="C33" t="n">
         <v>0.00349</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>155</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>-45.8</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1430</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>(1000-1030j)</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>1000</v>
-      </c>
       <c r="H33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I33" t="n">
         <v>-1030</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-2.9</v>
       </c>
     </row>
     <row r="34">
@@ -1376,27 +1679,36 @@
         <v>5</v>
       </c>
       <c r="B34" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="C34" t="n">
         <v>0.00354</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>160</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>-44.8</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1410</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>(1000-995j)</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>1000</v>
-      </c>
       <c r="H34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I34" t="n">
         <v>-995</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-3.03</v>
       </c>
     </row>
     <row r="35">
@@ -1404,27 +1716,36 @@
         <v>5</v>
       </c>
       <c r="B35" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="C35" t="n">
         <v>0.0036</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>165</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-44</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1390</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>(1000-965j)</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>1000</v>
-      </c>
       <c r="H35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="n">
         <v>-965</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-3.17</v>
       </c>
     </row>
     <row r="36">
@@ -1432,27 +1753,36 @@
         <v>5</v>
       </c>
       <c r="B36" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C36" t="n">
         <v>0.00365</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>170</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-43.1</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1370</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>(1000-936j)</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>1000</v>
-      </c>
       <c r="H36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I36" t="n">
         <v>-936</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="37">
@@ -1460,27 +1790,36 @@
         <v>5</v>
       </c>
       <c r="B37" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.0037</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>175</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-42.3</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>1350</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>(1000-909j)</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>1000</v>
-      </c>
       <c r="H37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I37" t="n">
         <v>-909</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-3.44</v>
       </c>
     </row>
     <row r="38">
@@ -1488,27 +1827,36 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="C38" t="n">
         <v>0.00375</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>180</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>-41.5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>1330</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>(1000-884j)</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>1000</v>
-      </c>
       <c r="H38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I38" t="n">
         <v>-884</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-3.58</v>
       </c>
     </row>
     <row r="39">
@@ -1516,27 +1864,36 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.00379</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>185</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>-40.7</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>1320</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>(1000-860j)</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>1000</v>
-      </c>
       <c r="H39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I39" t="n">
         <v>-860</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3.71</v>
       </c>
     </row>
     <row r="40">
@@ -1544,27 +1901,36 @@
         <v>5</v>
       </c>
       <c r="B40" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="C40" t="n">
         <v>0.00383</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>190</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-40</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1300</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>(1000-838j)</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>1000</v>
-      </c>
       <c r="H40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I40" t="n">
         <v>-838</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-3.85</v>
       </c>
     </row>
     <row r="41">
@@ -1572,27 +1938,36 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="C41" t="n">
         <v>0.00387</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>195</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>-39.2</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1290</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>(1000-816j)</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>1000</v>
-      </c>
       <c r="H41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I41" t="n">
         <v>-816</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-3.98</v>
       </c>
     </row>
     <row r="42">
@@ -1600,27 +1975,36 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C42" t="n">
         <v>0.00391</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>200</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-38.5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>1280</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>(1000-796j)</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>1000</v>
-      </c>
       <c r="H42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I42" t="n">
         <v>-796</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-4.11</v>
       </c>
     </row>
     <row r="43">
@@ -1628,27 +2012,36 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C43" t="n">
         <v>0.00395</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>205</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>-37.8</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1270</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>(1000-776j)</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>1000</v>
-      </c>
       <c r="H43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="n">
         <v>-776</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-4.25</v>
       </c>
     </row>
     <row r="44">
@@ -1656,27 +2049,36 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C44" t="n">
         <v>0.00398</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>210</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>-37.2</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1250</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>(1000-758j)</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>1000</v>
-      </c>
       <c r="H44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I44" t="n">
         <v>-758</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-4.38</v>
       </c>
     </row>
     <row r="45">
@@ -1684,27 +2086,36 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.00402</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>215</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-36.5</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>(1000-740j)</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>1000</v>
-      </c>
       <c r="H45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I45" t="n">
         <v>-740</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-4.51</v>
       </c>
     </row>
     <row r="46">
@@ -1712,27 +2123,36 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.00405</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>220</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>-35.9</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1230</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>(1000-723j)</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>1000</v>
-      </c>
       <c r="H46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I46" t="n">
         <v>-723</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-4.64</v>
       </c>
     </row>
     <row r="47">
@@ -1740,27 +2160,36 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.00408</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>225</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>-35.3</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1220</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>(1000-707j)</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>1000</v>
-      </c>
       <c r="H47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I47" t="n">
         <v>-707</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-4.77</v>
       </c>
     </row>
     <row r="48">
@@ -1768,27 +2197,36 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C48" t="n">
         <v>0.00411</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>230</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>-34.7</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>1220</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>(1000-692j)</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>1000</v>
-      </c>
       <c r="H48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I48" t="n">
         <v>-692</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-4.9</v>
       </c>
     </row>
     <row r="49">
@@ -1796,27 +2234,36 @@
         <v>5</v>
       </c>
       <c r="B49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C49" t="n">
         <v>0.00414</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>235</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>-34.1</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1210</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>(1000-677j)</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>1000</v>
-      </c>
       <c r="H49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="n">
         <v>-677</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-5.02</v>
       </c>
     </row>
     <row r="50">
@@ -1824,27 +2271,36 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C50" t="n">
         <v>0.00417</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>240</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>-33.6</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1200</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>(1000-663j)</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>1000</v>
-      </c>
       <c r="H50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I50" t="n">
         <v>-663</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-5.15</v>
       </c>
     </row>
     <row r="51">
@@ -1852,27 +2308,36 @@
         <v>5</v>
       </c>
       <c r="B51" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="C51" t="n">
         <v>0.00419</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>245</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>-33</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>1190</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>(1000-650j)</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>1000</v>
-      </c>
       <c r="H51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="n">
         <v>-650</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-5.28</v>
       </c>
     </row>
     <row r="52">
@@ -1880,27 +2345,36 @@
         <v>5</v>
       </c>
       <c r="B52" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.00422</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>250</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>-32.5</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>1190</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>(1000-637j)</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>1000</v>
-      </c>
       <c r="H52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I52" t="n">
         <v>-637</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-5.4</v>
       </c>
     </row>
     <row r="53">
@@ -1908,27 +2382,36 @@
         <v>5</v>
       </c>
       <c r="B53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C53" t="n">
         <v>0.00424</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>255</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>-32</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>1180</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>(1000-624j)</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>1000</v>
-      </c>
       <c r="H53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="n">
         <v>-624</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-5.52</v>
       </c>
     </row>
     <row r="54">
@@ -1936,27 +2419,36 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.00426</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>260</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>-31.5</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>1170</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>(1000-612j)</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>1000</v>
-      </c>
       <c r="H54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="n">
         <v>-612</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-5.65</v>
       </c>
     </row>
     <row r="55">
@@ -1964,27 +2456,36 @@
         <v>5</v>
       </c>
       <c r="B55" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C55" t="n">
         <v>0.00429</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>265</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>-31</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>1170</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>(1000-601j)</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>1000</v>
-      </c>
       <c r="H55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I55" t="n">
         <v>-601</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-5.77</v>
       </c>
     </row>
     <row r="56">
@@ -1992,27 +2493,36 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C56" t="n">
         <v>0.00431</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>270</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>-30.5</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>1160</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>(1000-589j)</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>1000</v>
-      </c>
       <c r="H56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I56" t="n">
         <v>-589</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-5.89</v>
       </c>
     </row>
     <row r="57">
@@ -2020,27 +2530,36 @@
         <v>5</v>
       </c>
       <c r="B57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C57" t="n">
         <v>0.00433</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>275</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>-30.1</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>1160</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>(1000-579j)</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>1000</v>
-      </c>
       <c r="H57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I57" t="n">
         <v>-579</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="58">
@@ -2048,27 +2567,36 @@
         <v>5</v>
       </c>
       <c r="B58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C58" t="n">
         <v>0.00435</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>280</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>-29.6</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>1150</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>(1000-568j)</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1000</v>
-      </c>
       <c r="H58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I58" t="n">
         <v>-568</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-6.12</v>
       </c>
     </row>
     <row r="59">
@@ -2076,27 +2604,36 @@
         <v>5</v>
       </c>
       <c r="B59" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="C59" t="n">
         <v>0.00437</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>285</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>-29.2</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>1150</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>(1000-558j)</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>1000</v>
-      </c>
       <c r="H59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I59" t="n">
         <v>-558</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-6.24</v>
       </c>
     </row>
     <row r="60">
@@ -2104,27 +2641,36 @@
         <v>5</v>
       </c>
       <c r="B60" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C60" t="n">
         <v>0.00438</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>290</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>-28.8</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>1140</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>(1000-549j)</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>1000</v>
-      </c>
       <c r="H60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I60" t="n">
         <v>-549</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-6.35</v>
       </c>
     </row>
     <row r="61">
@@ -2132,27 +2678,36 @@
         <v>5</v>
       </c>
       <c r="B61" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="C61" t="n">
         <v>0.0044</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>295</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>-28.3</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>1140</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>(1000-540j)</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>1000</v>
-      </c>
       <c r="H61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I61" t="n">
         <v>-540</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-6.47</v>
       </c>
     </row>
     <row r="62">
@@ -2160,27 +2715,36 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C62" t="n">
         <v>0.00442</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>300</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>-27.9</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>1130</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>(1000-531j)</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>1000</v>
-      </c>
       <c r="H62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I62" t="n">
         <v>-531</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-6.58</v>
       </c>
     </row>
     <row r="63">
@@ -2188,27 +2752,36 @@
         <v>5</v>
       </c>
       <c r="B63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C63" t="n">
         <v>0.00443</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>305</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>-27.6</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>1130</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>(1000-522j)</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>1000</v>
-      </c>
       <c r="H63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I63" t="n">
         <v>-522</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-6.7</v>
       </c>
     </row>
     <row r="64">
@@ -2216,27 +2789,36 @@
         <v>5</v>
       </c>
       <c r="B64" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C64" t="n">
         <v>0.00445</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>310</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>-27.2</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>1120</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>(1000-513j)</t>
         </is>
       </c>
-      <c r="G64" t="n">
-        <v>1000</v>
-      </c>
       <c r="H64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="n">
         <v>-513</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-6.81</v>
       </c>
     </row>
     <row r="65">
@@ -2244,27 +2826,36 @@
         <v>5</v>
       </c>
       <c r="B65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C65" t="n">
         <v>0.00446</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>315</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>-26.8</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>1120</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>(1000-505j)</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>1000</v>
-      </c>
       <c r="H65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I65" t="n">
         <v>-505</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-6.92</v>
       </c>
     </row>
     <row r="66">
@@ -2272,27 +2863,36 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C66" t="n">
         <v>0.00448</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>320</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>-26.4</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>(1000-497j)</t>
         </is>
       </c>
-      <c r="G66" t="n">
-        <v>1000</v>
-      </c>
       <c r="H66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I66" t="n">
         <v>-497</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-7.03</v>
       </c>
     </row>
     <row r="67">
@@ -2300,27 +2900,36 @@
         <v>5</v>
       </c>
       <c r="B67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C67" t="n">
         <v>0.00449</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>325</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>-26.1</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>1110</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>(1000-490j)</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>1000</v>
-      </c>
       <c r="H67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I67" t="n">
         <v>-490</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-7.13</v>
       </c>
     </row>
     <row r="68">
@@ -2328,27 +2937,36 @@
         <v>5</v>
       </c>
       <c r="B68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C68" t="n">
         <v>0.0045</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>330</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-25.7</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>1110</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>(1000-482j)</t>
         </is>
       </c>
-      <c r="G68" t="n">
-        <v>1000</v>
-      </c>
       <c r="H68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I68" t="n">
         <v>-482</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-7.24</v>
       </c>
     </row>
     <row r="69">
@@ -2356,27 +2974,36 @@
         <v>5</v>
       </c>
       <c r="B69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C69" t="n">
         <v>0.00452</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>335</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>-25.4</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>1110</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>(1000-475j)</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>1000</v>
-      </c>
       <c r="H69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I69" t="n">
         <v>-475</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-7.35</v>
       </c>
     </row>
     <row r="70">
@@ -2384,27 +3011,36 @@
         <v>5</v>
       </c>
       <c r="B70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="C70" t="n">
         <v>0.00453</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>340</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>-25.1</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>1100</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>(1000-468j)</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>1000</v>
-      </c>
       <c r="H70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I70" t="n">
         <v>-468</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-7.45</v>
       </c>
     </row>
     <row r="71">
@@ -2412,27 +3048,36 @@
         <v>5</v>
       </c>
       <c r="B71" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C71" t="n">
         <v>0.00454</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>345</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-24.8</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>1100</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>(1000-461j)</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>1000</v>
-      </c>
       <c r="H71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="n">
         <v>-461</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-7.56</v>
       </c>
     </row>
     <row r="72">
@@ -2440,27 +3085,36 @@
         <v>5</v>
       </c>
       <c r="B72" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C72" t="n">
         <v>0.00455</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>350</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>-24.5</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>1100</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>(1000-455j)</t>
         </is>
       </c>
-      <c r="G72" t="n">
-        <v>1000</v>
-      </c>
       <c r="H72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I72" t="n">
         <v>-455</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-7.66</v>
       </c>
     </row>
     <row r="73">
@@ -2468,27 +3122,36 @@
         <v>5</v>
       </c>
       <c r="B73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C73" t="n">
         <v>0.00456</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>355</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>-24.1</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>1100</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>(1000-448j)</t>
         </is>
       </c>
-      <c r="G73" t="n">
-        <v>1000</v>
-      </c>
       <c r="H73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I73" t="n">
         <v>-448</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-7.76</v>
       </c>
     </row>
     <row r="74">
@@ -2496,27 +3159,36 @@
         <v>5</v>
       </c>
       <c r="B74" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C74" t="n">
         <v>0.00457</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>360</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-23.9</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>1090</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>(1000-442j)</t>
         </is>
       </c>
-      <c r="G74" t="n">
-        <v>1000</v>
-      </c>
       <c r="H74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I74" t="n">
         <v>-442</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-7.86</v>
       </c>
     </row>
     <row r="75">
@@ -2524,27 +3196,36 @@
         <v>5</v>
       </c>
       <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
         <v>0.00458</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>365</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>-23.6</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>1090</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>(1000-436j)</t>
         </is>
       </c>
-      <c r="G75" t="n">
-        <v>1000</v>
-      </c>
       <c r="H75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I75" t="n">
         <v>-436</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-7.97</v>
       </c>
     </row>
     <row r="76">
@@ -2552,27 +3233,36 @@
         <v>5</v>
       </c>
       <c r="B76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C76" t="n">
         <v>0.00459</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>370</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>-23.3</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>1090</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>(1000-430j)</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>1000</v>
-      </c>
       <c r="H76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I76" t="n">
         <v>-430</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-8.06</v>
       </c>
     </row>
     <row r="77">
@@ -2580,27 +3270,36 @@
         <v>5</v>
       </c>
       <c r="B77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C77" t="n">
         <v>0.0046</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>375</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>-23</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>1090</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>(1000-424j)</t>
         </is>
       </c>
-      <c r="G77" t="n">
-        <v>1000</v>
-      </c>
       <c r="H77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I77" t="n">
         <v>-424</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-8.16</v>
       </c>
     </row>
     <row r="78">
@@ -2608,27 +3307,36 @@
         <v>5</v>
       </c>
       <c r="B78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C78" t="n">
         <v>0.00461</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>380</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>-22.7</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>1080</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>(1000-419j)</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>1000</v>
-      </c>
       <c r="H78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I78" t="n">
         <v>-419</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-8.26</v>
       </c>
     </row>
     <row r="79">
@@ -2636,27 +3344,36 @@
         <v>5</v>
       </c>
       <c r="B79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C79" t="n">
         <v>0.00462</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>385</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-22.5</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>1080</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>(1000-413j)</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>1000</v>
-      </c>
       <c r="H79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I79" t="n">
         <v>-413</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2664,27 +3381,36 @@
         <v>5</v>
       </c>
       <c r="B80" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C80" t="n">
         <v>0.00463</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>390</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>-22.2</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>1080</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>(1000-408j)</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>1000</v>
-      </c>
       <c r="H80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I80" t="n">
         <v>-408</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -2692,27 +3418,36 @@
         <v>5</v>
       </c>
       <c r="B81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C81" t="n">
         <v>0.00464</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>395</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>-21.9</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>1080</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>(1000-403j)</t>
         </is>
       </c>
-      <c r="G81" t="n">
-        <v>1000</v>
-      </c>
       <c r="H81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I81" t="n">
         <v>-403</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-8.550000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2720,27 +3455,36 @@
         <v>5</v>
       </c>
       <c r="B82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C82" t="n">
         <v>0.00465</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>400</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>-21.7</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1080</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>(1000-398j)</t>
         </is>
       </c>
-      <c r="G82" t="n">
-        <v>1000</v>
-      </c>
       <c r="H82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I82" t="n">
         <v>-398</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-8.640000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2748,27 +3492,36 @@
         <v>5</v>
       </c>
       <c r="B83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C83" t="n">
         <v>0.00465</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>405</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>-21.5</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>1070</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>(1000-393j)</t>
         </is>
       </c>
-      <c r="G83" t="n">
-        <v>1000</v>
-      </c>
       <c r="H83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I83" t="n">
         <v>-393</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-8.74</v>
       </c>
     </row>
     <row r="84">
@@ -2776,27 +3529,36 @@
         <v>5</v>
       </c>
       <c r="B84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C84" t="n">
         <v>0.00466</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>410</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>-21.2</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1070</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>(1000-388j)</t>
         </is>
       </c>
-      <c r="G84" t="n">
-        <v>1000</v>
-      </c>
       <c r="H84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I84" t="n">
         <v>-388</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-8.83</v>
       </c>
     </row>
     <row r="85">
@@ -2804,27 +3566,36 @@
         <v>5</v>
       </c>
       <c r="B85" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C85" t="n">
         <v>0.00467</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>415</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>-21</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1070</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>(1000-384j)</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1000</v>
-      </c>
       <c r="H85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I85" t="n">
         <v>-384</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-8.92</v>
       </c>
     </row>
     <row r="86">
@@ -2832,27 +3603,36 @@
         <v>5</v>
       </c>
       <c r="B86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C86" t="n">
         <v>0.00468</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>420</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>-20.8</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>1070</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>(1000-379j)</t>
         </is>
       </c>
-      <c r="G86" t="n">
-        <v>1000</v>
-      </c>
       <c r="H86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I86" t="n">
         <v>-379</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-9.01</v>
       </c>
     </row>
     <row r="87">
@@ -2860,27 +3640,36 @@
         <v>5</v>
       </c>
       <c r="B87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C87" t="n">
         <v>0.00468</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>425</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1070</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>(1000-374j)</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>1000</v>
-      </c>
       <c r="H87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I87" t="n">
         <v>-374</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-9.1</v>
       </c>
     </row>
     <row r="88">
@@ -2888,27 +3677,36 @@
         <v>5</v>
       </c>
       <c r="B88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C88" t="n">
         <v>0.00469</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>430</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>-20.3</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>1070</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>(1000-370j)</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>1000</v>
-      </c>
       <c r="H88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I88" t="n">
         <v>-370</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-9.19</v>
       </c>
     </row>
     <row r="89">
@@ -2916,27 +3714,36 @@
         <v>5</v>
       </c>
       <c r="B89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="C89" t="n">
         <v>0.0047</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>435</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>-20.1</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1060</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>(1000-366j)</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>1000</v>
-      </c>
       <c r="H89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I89" t="n">
         <v>-366</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-9.279999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -2944,27 +3751,36 @@
         <v>5</v>
       </c>
       <c r="B90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C90" t="n">
         <v>0.0047</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>440</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>-19.9</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1060</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>(1000-362j)</t>
         </is>
       </c>
-      <c r="G90" t="n">
-        <v>1000</v>
-      </c>
       <c r="H90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I90" t="n">
         <v>-362</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-9.369999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2972,27 +3788,36 @@
         <v>5</v>
       </c>
       <c r="B91" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C91" t="n">
         <v>0.00471</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>445</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>-19.7</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1060</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>(1000-358j)</t>
         </is>
       </c>
-      <c r="G91" t="n">
-        <v>1000</v>
-      </c>
       <c r="H91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I91" t="n">
         <v>-358</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-9.449999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -3000,27 +3825,36 @@
         <v>5</v>
       </c>
       <c r="B92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="C92" t="n">
         <v>0.00471</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>450</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>-19.5</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>1060</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>(1000-354j)</t>
         </is>
       </c>
-      <c r="G92" t="n">
-        <v>1000</v>
-      </c>
       <c r="H92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I92" t="n">
         <v>-354</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -3028,27 +3862,36 @@
         <v>5</v>
       </c>
       <c r="B93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C93" t="n">
         <v>0.00472</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>455</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>-19.3</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1060</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>(1000-350j)</t>
         </is>
       </c>
-      <c r="G93" t="n">
-        <v>1000</v>
-      </c>
       <c r="H93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I93" t="n">
         <v>-350</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-9.630000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -3056,27 +3899,36 @@
         <v>5</v>
       </c>
       <c r="B94" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C94" t="n">
         <v>0.00473</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>460</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>-19.1</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1060</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>(1000-346j)</t>
         </is>
       </c>
-      <c r="G94" t="n">
-        <v>1000</v>
-      </c>
       <c r="H94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I94" t="n">
         <v>-346</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -3084,27 +3936,36 @@
         <v>5</v>
       </c>
       <c r="B95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C95" t="n">
         <v>0.00473</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>465</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>-18.9</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>1060</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>(1000-342j)</t>
         </is>
       </c>
-      <c r="G95" t="n">
-        <v>1000</v>
-      </c>
       <c r="H95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I95" t="n">
         <v>-342</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-9.789999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -3112,27 +3973,36 @@
         <v>5</v>
       </c>
       <c r="B96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.00474</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>470</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>-18.7</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1060</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>(1000-339j)</t>
         </is>
       </c>
-      <c r="G96" t="n">
-        <v>1000</v>
-      </c>
       <c r="H96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I96" t="n">
         <v>-339</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-9.880000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -3140,27 +4010,36 @@
         <v>5</v>
       </c>
       <c r="B97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C97" t="n">
         <v>0.00474</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>475</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>-18.5</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1050</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>(1000-335j)</t>
         </is>
       </c>
-      <c r="G97" t="n">
-        <v>1000</v>
-      </c>
       <c r="H97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I97" t="n">
         <v>-335</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-9.960000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -3168,27 +4047,36 @@
         <v>5</v>
       </c>
       <c r="B98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C98" t="n">
         <v>0.00475</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>480</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>-18.3</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1050</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>(1000-332j)</t>
         </is>
       </c>
-      <c r="G98" t="n">
-        <v>1000</v>
-      </c>
       <c r="H98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I98" t="n">
         <v>-332</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="99">
@@ -3196,27 +4084,36 @@
         <v>5</v>
       </c>
       <c r="B99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C99" t="n">
         <v>0.00475</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>485</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>-18.2</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>1050</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>(1000-328j)</t>
         </is>
       </c>
-      <c r="G99" t="n">
-        <v>1000</v>
-      </c>
       <c r="H99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I99" t="n">
         <v>-328</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-10.1</v>
       </c>
     </row>
     <row r="100">
@@ -3224,27 +4121,36 @@
         <v>5</v>
       </c>
       <c r="B100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="C100" t="n">
         <v>0.00476</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>490</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>-18</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1050</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>(1000-325j)</t>
         </is>
       </c>
-      <c r="G100" t="n">
-        <v>1000</v>
-      </c>
       <c r="H100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I100" t="n">
         <v>-325</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-10.2</v>
       </c>
     </row>
     <row r="101">
@@ -3252,27 +4158,36 @@
         <v>5</v>
       </c>
       <c r="B101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C101" t="n">
         <v>0.00476</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>495</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>-17.8</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1050</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>(1000-322j)</t>
         </is>
       </c>
-      <c r="G101" t="n">
-        <v>1000</v>
-      </c>
       <c r="H101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I101" t="n">
         <v>-322</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-10.3</v>
       </c>
     </row>
     <row r="102">
@@ -3280,27 +4195,36 @@
         <v>5</v>
       </c>
       <c r="B102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C102" t="n">
         <v>0.00476</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>500</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>-17.7</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1050</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>(1000-318j)</t>
         </is>
       </c>
-      <c r="G102" t="n">
-        <v>1000</v>
-      </c>
       <c r="H102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I102" t="n">
         <v>-318</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-10.4</v>
       </c>
     </row>
     <row r="103">
@@ -3308,27 +4232,36 @@
         <v>5</v>
       </c>
       <c r="B103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C103" t="n">
         <v>0.00477</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>505</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>-17.5</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>1050</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>(1000-315j)</t>
         </is>
       </c>
-      <c r="G103" t="n">
-        <v>1000</v>
-      </c>
       <c r="H103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I103" t="n">
         <v>-315</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-10.4</v>
       </c>
     </row>
     <row r="104">
@@ -3336,27 +4269,36 @@
         <v>5</v>
       </c>
       <c r="B104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C104" t="n">
         <v>0.00477</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>510</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>-17.3</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1050</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>(1000-312j)</t>
         </is>
       </c>
-      <c r="G104" t="n">
-        <v>1000</v>
-      </c>
       <c r="H104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I104" t="n">
         <v>-312</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-10.5</v>
       </c>
     </row>
     <row r="105">
@@ -3364,27 +4306,36 @@
         <v>5</v>
       </c>
       <c r="B105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C105" t="n">
         <v>0.00478</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>515</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>-17.2</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>1050</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>(1000-309j)</t>
         </is>
       </c>
-      <c r="G105" t="n">
-        <v>1000</v>
-      </c>
       <c r="H105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I105" t="n">
         <v>-309</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-10.6</v>
       </c>
     </row>
     <row r="106">
@@ -3392,27 +4343,36 @@
         <v>5</v>
       </c>
       <c r="B106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C106" t="n">
         <v>0.00478</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>520</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>-17</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1050</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>(1000-306j)</t>
         </is>
       </c>
-      <c r="G106" t="n">
-        <v>1000</v>
-      </c>
       <c r="H106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I106" t="n">
         <v>-306</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-10.7</v>
       </c>
     </row>
     <row r="107">
@@ -3420,27 +4380,36 @@
         <v>5</v>
       </c>
       <c r="B107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.00478</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>525</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>-16.9</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1040</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>(1000-303j)</t>
         </is>
       </c>
-      <c r="G107" t="n">
-        <v>1000</v>
-      </c>
       <c r="H107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I107" t="n">
         <v>-303</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-10.7</v>
       </c>
     </row>
     <row r="108">
@@ -3448,27 +4417,36 @@
         <v>5</v>
       </c>
       <c r="B108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C108" t="n">
         <v>0.00479</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>530</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>-16.7</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1040</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>(1000-300j)</t>
         </is>
       </c>
-      <c r="G108" t="n">
-        <v>1000</v>
-      </c>
       <c r="H108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I108" t="n">
         <v>-300</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-10.8</v>
       </c>
     </row>
     <row r="109">
@@ -3476,27 +4454,36 @@
         <v>5</v>
       </c>
       <c r="B109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C109" t="n">
         <v>0.00479</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>535</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>-16.6</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1040</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>(1000-297j)</t>
         </is>
       </c>
-      <c r="G109" t="n">
-        <v>1000</v>
-      </c>
       <c r="H109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I109" t="n">
         <v>-297</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-10.9</v>
       </c>
     </row>
     <row r="110">
@@ -3504,27 +4491,36 @@
         <v>5</v>
       </c>
       <c r="B110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C110" t="n">
         <v>0.0048</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>540</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>-16.4</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>1040</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>(1000-295j)</t>
         </is>
       </c>
-      <c r="G110" t="n">
-        <v>1000</v>
-      </c>
       <c r="H110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I110" t="n">
         <v>-295</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="111">
@@ -3532,27 +4528,36 @@
         <v>5</v>
       </c>
       <c r="B111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C111" t="n">
         <v>0.0048</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>545</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>-16.3</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1040</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>(1000-292j)</t>
         </is>
       </c>
-      <c r="G111" t="n">
-        <v>1000</v>
-      </c>
       <c r="H111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I111" t="n">
         <v>-292</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="112">
@@ -3560,27 +4565,36 @@
         <v>5</v>
       </c>
       <c r="B112" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C112" t="n">
         <v>0.0048</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>550</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>-16.1</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1040</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>(1000-289j)</t>
         </is>
       </c>
-      <c r="G112" t="n">
-        <v>1000</v>
-      </c>
       <c r="H112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I112" t="n">
         <v>-289</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-11.1</v>
       </c>
     </row>
     <row r="113">
@@ -3588,27 +4602,36 @@
         <v>5</v>
       </c>
       <c r="B113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C113" t="n">
         <v>0.00481</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>555</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>-16</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1040</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>(1000-287j)</t>
         </is>
       </c>
-      <c r="G113" t="n">
-        <v>1000</v>
-      </c>
       <c r="H113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="n">
         <v>-287</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-11.2</v>
       </c>
     </row>
     <row r="114">
@@ -3616,27 +4639,36 @@
         <v>5</v>
       </c>
       <c r="B114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C114" t="n">
         <v>0.00481</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>560</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>-15.9</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1040</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>(1000-284j)</t>
         </is>
       </c>
-      <c r="G114" t="n">
-        <v>1000</v>
-      </c>
       <c r="H114" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I114" t="n">
         <v>-284</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-11.3</v>
       </c>
     </row>
     <row r="115">
@@ -3644,27 +4676,36 @@
         <v>5</v>
       </c>
       <c r="B115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C115" t="n">
         <v>0.00481</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>565</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>-15.7</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1040</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>(1000-282j)</t>
         </is>
       </c>
-      <c r="G115" t="n">
-        <v>1000</v>
-      </c>
       <c r="H115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I115" t="n">
         <v>-282</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-11.3</v>
       </c>
     </row>
     <row r="116">
@@ -3672,27 +4713,36 @@
         <v>5</v>
       </c>
       <c r="B116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C116" t="n">
         <v>0.00482</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>570</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>-15.6</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1040</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>(1000-279j)</t>
         </is>
       </c>
-      <c r="G116" t="n">
-        <v>1000</v>
-      </c>
       <c r="H116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I116" t="n">
         <v>-279</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-11.4</v>
       </c>
     </row>
     <row r="117">
@@ -3700,27 +4750,36 @@
         <v>5</v>
       </c>
       <c r="B117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C117" t="n">
         <v>0.00482</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>575</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>-15.5</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>1040</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>(1000-277j)</t>
         </is>
       </c>
-      <c r="G117" t="n">
-        <v>1000</v>
-      </c>
       <c r="H117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I117" t="n">
         <v>-277</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-11.5</v>
       </c>
     </row>
     <row r="118">
@@ -3728,27 +4787,36 @@
         <v>5</v>
       </c>
       <c r="B118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C118" t="n">
         <v>0.00482</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>580</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>-15.3</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1040</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>(1000-274j)</t>
         </is>
       </c>
-      <c r="G118" t="n">
-        <v>1000</v>
-      </c>
       <c r="H118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I118" t="n">
         <v>-274</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-11.5</v>
       </c>
     </row>
     <row r="119">
@@ -3756,27 +4824,36 @@
         <v>5</v>
       </c>
       <c r="B119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C119" t="n">
         <v>0.00482</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>585</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>-15.2</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>1040</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>(1000-272j)</t>
         </is>
       </c>
-      <c r="G119" t="n">
-        <v>1000</v>
-      </c>
       <c r="H119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I119" t="n">
         <v>-272</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-11.6</v>
       </c>
     </row>
     <row r="120">
@@ -3784,27 +4861,36 @@
         <v>5</v>
       </c>
       <c r="B120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C120" t="n">
         <v>0.00483</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>590</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>-15.1</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>1040</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>(1000-270j)</t>
         </is>
       </c>
-      <c r="G120" t="n">
-        <v>1000</v>
-      </c>
       <c r="H120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I120" t="n">
         <v>-270</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-11.7</v>
       </c>
     </row>
     <row r="121">
@@ -3812,27 +4898,36 @@
         <v>5</v>
       </c>
       <c r="B121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C121" t="n">
         <v>0.00483</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>595</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>-15</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>1040</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>(1000-267j)</t>
         </is>
       </c>
-      <c r="G121" t="n">
-        <v>1000</v>
-      </c>
       <c r="H121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I121" t="n">
         <v>-267</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="122">
@@ -3840,27 +4935,36 @@
         <v>5</v>
       </c>
       <c r="B122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C122" t="n">
         <v>0.00483</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>600</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>-14.9</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>1030</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>(1000-265j)</t>
         </is>
       </c>
-      <c r="G122" t="n">
-        <v>1000</v>
-      </c>
       <c r="H122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I122" t="n">
         <v>-265</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="123">
@@ -3868,27 +4972,36 @@
         <v>5</v>
       </c>
       <c r="B123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C123" t="n">
         <v>0.00484</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>605</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>-14.7</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>1030</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>(1000-263j)</t>
         </is>
       </c>
-      <c r="G123" t="n">
-        <v>1000</v>
-      </c>
       <c r="H123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I123" t="n">
         <v>-263</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-11.9</v>
       </c>
     </row>
     <row r="124">
@@ -3896,27 +5009,36 @@
         <v>5</v>
       </c>
       <c r="B124" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C124" t="n">
         <v>0.00484</v>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>610</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>-14.6</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>1030</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>(1000-261j)</t>
         </is>
       </c>
-      <c r="G124" t="n">
-        <v>1000</v>
-      </c>
       <c r="H124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I124" t="n">
         <v>-261</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="125">
@@ -3924,27 +5046,36 @@
         <v>5</v>
       </c>
       <c r="B125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C125" t="n">
         <v>0.00484</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>615</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>-14.5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>1030</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>(1000-259j)</t>
         </is>
       </c>
-      <c r="G125" t="n">
-        <v>1000</v>
-      </c>
       <c r="H125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I125" t="n">
         <v>-259</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="126">
@@ -3952,27 +5083,36 @@
         <v>5</v>
       </c>
       <c r="B126" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C126" t="n">
         <v>0.00484</v>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>620</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>-14.4</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>1030</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>(1000-257j)</t>
         </is>
       </c>
-      <c r="G126" t="n">
-        <v>1000</v>
-      </c>
       <c r="H126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I126" t="n">
         <v>-257</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-12.1</v>
       </c>
     </row>
     <row r="127">
@@ -3980,27 +5120,36 @@
         <v>5</v>
       </c>
       <c r="B127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C127" t="n">
         <v>0.00485</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>625</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>-14.3</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>1030</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>(1000-255j)</t>
         </is>
       </c>
-      <c r="G127" t="n">
-        <v>1000</v>
-      </c>
       <c r="H127" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I127" t="n">
         <v>-255</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-12.2</v>
       </c>
     </row>
     <row r="128">
@@ -4008,27 +5157,36 @@
         <v>5</v>
       </c>
       <c r="B128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C128" t="n">
         <v>0.00485</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>630</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>-14.2</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>1030</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>(1000-253j)</t>
         </is>
       </c>
-      <c r="G128" t="n">
-        <v>1000</v>
-      </c>
       <c r="H128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I128" t="n">
         <v>-253</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-12.2</v>
       </c>
     </row>
     <row r="129">
@@ -4036,27 +5194,36 @@
         <v>5</v>
       </c>
       <c r="B129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C129" t="n">
         <v>0.00485</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>635</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>-14.1</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>1030</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>(1000-251j)</t>
         </is>
       </c>
-      <c r="G129" t="n">
-        <v>1000</v>
-      </c>
       <c r="H129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I129" t="n">
         <v>-251</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-12.3</v>
       </c>
     </row>
     <row r="130">
@@ -4064,27 +5231,36 @@
         <v>5</v>
       </c>
       <c r="B130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C130" t="n">
         <v>0.00485</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>640</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>-14</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>1030</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>(1000-249j)</t>
         </is>
       </c>
-      <c r="G130" t="n">
-        <v>1000</v>
-      </c>
       <c r="H130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I130" t="n">
         <v>-249</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-12.3</v>
       </c>
     </row>
     <row r="131">
@@ -4092,27 +5268,36 @@
         <v>5</v>
       </c>
       <c r="B131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C131" t="n">
         <v>0.00485</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>645</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>-13.9</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>1030</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>(1000-247j)</t>
         </is>
       </c>
-      <c r="G131" t="n">
-        <v>1000</v>
-      </c>
       <c r="H131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I131" t="n">
         <v>-247</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-12.4</v>
       </c>
     </row>
     <row r="132">
@@ -4120,27 +5305,36 @@
         <v>5</v>
       </c>
       <c r="B132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C132" t="n">
         <v>0.00486</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>650</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>-13.8</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>1030</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>(1000-245j)</t>
         </is>
       </c>
-      <c r="G132" t="n">
-        <v>1000</v>
-      </c>
       <c r="H132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I132" t="n">
         <v>-245</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-12.5</v>
       </c>
     </row>
     <row r="133">
@@ -4148,27 +5342,36 @@
         <v>5</v>
       </c>
       <c r="B133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C133" t="n">
         <v>0.00486</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>655</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>-13.7</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>1030</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>(1000-243j)</t>
         </is>
       </c>
-      <c r="G133" t="n">
-        <v>1000</v>
-      </c>
       <c r="H133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I133" t="n">
         <v>-243</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-12.5</v>
       </c>
     </row>
     <row r="134">
@@ -4176,27 +5379,36 @@
         <v>5</v>
       </c>
       <c r="B134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C134" t="n">
         <v>0.00486</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>660</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>-13.6</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>1030</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>(1000-241j)</t>
         </is>
       </c>
-      <c r="G134" t="n">
-        <v>1000</v>
-      </c>
       <c r="H134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I134" t="n">
         <v>-241</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-12.6</v>
       </c>
     </row>
     <row r="135">
@@ -4204,27 +5416,36 @@
         <v>5</v>
       </c>
       <c r="B135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C135" t="n">
         <v>0.00486</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>665</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>-13.5</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>1030</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>(1000-239j)</t>
         </is>
       </c>
-      <c r="G135" t="n">
-        <v>1000</v>
-      </c>
       <c r="H135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I135" t="n">
         <v>-239</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-12.7</v>
       </c>
     </row>
     <row r="136">
@@ -4232,27 +5453,36 @@
         <v>5</v>
       </c>
       <c r="B136" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C136" t="n">
         <v>0.00486</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>670</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>-13.4</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>1030</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>(1000-238j)</t>
         </is>
       </c>
-      <c r="G136" t="n">
-        <v>1000</v>
-      </c>
       <c r="H136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I136" t="n">
         <v>-238</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-12.7</v>
       </c>
     </row>
     <row r="137">
@@ -4260,27 +5490,36 @@
         <v>5</v>
       </c>
       <c r="B137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C137" t="n">
         <v>0.00487</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>675</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>-13.3</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>1030</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>(1000-236j)</t>
         </is>
       </c>
-      <c r="G137" t="n">
-        <v>1000</v>
-      </c>
       <c r="H137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I137" t="n">
         <v>-236</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-12.8</v>
       </c>
     </row>
     <row r="138">
@@ -4288,27 +5527,36 @@
         <v>5</v>
       </c>
       <c r="B138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C138" t="n">
         <v>0.00487</v>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>680</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>-13.2</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>1030</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>(1000-234j)</t>
         </is>
       </c>
-      <c r="G138" t="n">
-        <v>1000</v>
-      </c>
       <c r="H138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I138" t="n">
         <v>-234</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-12.8</v>
       </c>
     </row>
     <row r="139">
@@ -4316,27 +5564,36 @@
         <v>5</v>
       </c>
       <c r="B139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C139" t="n">
         <v>0.00487</v>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>685</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>-13.1</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>1030</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>(1000-232j)</t>
         </is>
       </c>
-      <c r="G139" t="n">
-        <v>1000</v>
-      </c>
       <c r="H139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I139" t="n">
         <v>-232</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-12.9</v>
       </c>
     </row>
     <row r="140">
@@ -4344,27 +5601,36 @@
         <v>5</v>
       </c>
       <c r="B140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C140" t="n">
         <v>0.00487</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>690</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>-13</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>1030</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>(1000-231j)</t>
         </is>
       </c>
-      <c r="G140" t="n">
-        <v>1000</v>
-      </c>
       <c r="H140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I140" t="n">
         <v>-231</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="141">
@@ -4372,27 +5638,36 @@
         <v>5</v>
       </c>
       <c r="B141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C141" t="n">
         <v>0.00487</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>695</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>-12.9</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>1030</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>(1000-229j)</t>
         </is>
       </c>
-      <c r="G141" t="n">
-        <v>1000</v>
-      </c>
       <c r="H141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I141" t="n">
         <v>-229</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="142">
@@ -4400,27 +5675,36 @@
         <v>5</v>
       </c>
       <c r="B142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C142" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>700</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>-12.8</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>1030</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>(1000-227j)</t>
         </is>
       </c>
-      <c r="G142" t="n">
-        <v>1000</v>
-      </c>
       <c r="H142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I142" t="n">
         <v>-227</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-13.1</v>
       </c>
     </row>
     <row r="143">
@@ -4428,27 +5712,36 @@
         <v>5</v>
       </c>
       <c r="B143" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C143" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>705</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>-12.7</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>1030</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>(1000-226j)</t>
         </is>
       </c>
-      <c r="G143" t="n">
-        <v>1000</v>
-      </c>
       <c r="H143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I143" t="n">
         <v>-226</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-13.1</v>
       </c>
     </row>
     <row r="144">
@@ -4456,27 +5749,36 @@
         <v>5</v>
       </c>
       <c r="B144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C144" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>710</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>-12.6</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>1020</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>(1000-224j)</t>
         </is>
       </c>
-      <c r="G144" t="n">
-        <v>1000</v>
-      </c>
       <c r="H144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I144" t="n">
         <v>-224</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-13.2</v>
       </c>
     </row>
     <row r="145">
@@ -4484,27 +5786,36 @@
         <v>5</v>
       </c>
       <c r="B145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C145" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>715</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>-12.5</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>1020</v>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>(1000-223j)</t>
         </is>
       </c>
-      <c r="G145" t="n">
-        <v>1000</v>
-      </c>
       <c r="H145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I145" t="n">
         <v>-223</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-13.3</v>
       </c>
     </row>
     <row r="146">
@@ -4512,27 +5823,36 @@
         <v>5</v>
       </c>
       <c r="B146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C146" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>720</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>-12.5</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>1020</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>(1000-221j)</t>
         </is>
       </c>
-      <c r="G146" t="n">
-        <v>1000</v>
-      </c>
       <c r="H146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I146" t="n">
         <v>-221</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-13.3</v>
       </c>
     </row>
     <row r="147">
@@ -4540,27 +5860,36 @@
         <v>5</v>
       </c>
       <c r="B147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C147" t="n">
         <v>0.00488</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>725</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>-12.4</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>1020</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>(1000-220j)</t>
         </is>
       </c>
-      <c r="G147" t="n">
-        <v>1000</v>
-      </c>
       <c r="H147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I147" t="n">
         <v>-220</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-13.4</v>
       </c>
     </row>
     <row r="148">
@@ -4568,27 +5897,36 @@
         <v>5</v>
       </c>
       <c r="B148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C148" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>730</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>-12.3</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>1020</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>(1000-218j)</t>
         </is>
       </c>
-      <c r="G148" t="n">
-        <v>1000</v>
-      </c>
       <c r="H148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I148" t="n">
         <v>-218</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-13.4</v>
       </c>
     </row>
     <row r="149">
@@ -4596,27 +5934,36 @@
         <v>5</v>
       </c>
       <c r="B149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C149" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>735</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>-12.2</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>1020</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>(1000-217j)</t>
         </is>
       </c>
-      <c r="G149" t="n">
-        <v>1000</v>
-      </c>
       <c r="H149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I149" t="n">
         <v>-217</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-13.5</v>
       </c>
     </row>
     <row r="150">
@@ -4624,27 +5971,36 @@
         <v>5</v>
       </c>
       <c r="B150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C150" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>740</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>-12.1</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>1020</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>(1000-215j)</t>
         </is>
       </c>
-      <c r="G150" t="n">
-        <v>1000</v>
-      </c>
       <c r="H150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I150" t="n">
         <v>-215</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-13.5</v>
       </c>
     </row>
     <row r="151">
@@ -4652,27 +6008,36 @@
         <v>5</v>
       </c>
       <c r="B151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C151" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>745</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>-12.1</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>1020</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>(1000-214j)</t>
         </is>
       </c>
-      <c r="G151" t="n">
-        <v>1000</v>
-      </c>
       <c r="H151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I151" t="n">
         <v>-214</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-13.6</v>
       </c>
     </row>
     <row r="152">
@@ -4680,27 +6045,36 @@
         <v>5</v>
       </c>
       <c r="B152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C152" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>750</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>-12</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>1020</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>(1000-212j)</t>
         </is>
       </c>
-      <c r="G152" t="n">
-        <v>1000</v>
-      </c>
       <c r="H152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I152" t="n">
         <v>-212</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-13.7</v>
       </c>
     </row>
     <row r="153">
@@ -4708,27 +6082,36 @@
         <v>5</v>
       </c>
       <c r="B153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C153" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>755</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>-11.9</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>1020</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>(1000-211j)</t>
         </is>
       </c>
-      <c r="G153" t="n">
-        <v>1000</v>
-      </c>
       <c r="H153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I153" t="n">
         <v>-211</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-13.7</v>
       </c>
     </row>
     <row r="154">
@@ -4736,27 +6119,36 @@
         <v>5</v>
       </c>
       <c r="B154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C154" t="n">
         <v>0.00489</v>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>760</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>-11.8</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>1020</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>(1000-209j)</t>
         </is>
       </c>
-      <c r="G154" t="n">
-        <v>1000</v>
-      </c>
       <c r="H154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I154" t="n">
         <v>-209</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-13.8</v>
       </c>
     </row>
     <row r="155">
@@ -4764,27 +6156,36 @@
         <v>5</v>
       </c>
       <c r="B155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C155" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>765</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>-11.8</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>1020</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>(1000-208j)</t>
         </is>
       </c>
-      <c r="G155" t="n">
-        <v>1000</v>
-      </c>
       <c r="H155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I155" t="n">
         <v>-208</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-13.8</v>
       </c>
     </row>
     <row r="156">
@@ -4792,27 +6193,36 @@
         <v>5</v>
       </c>
       <c r="B156" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C156" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>770</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>-11.7</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>1020</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>(1000-207j)</t>
         </is>
       </c>
-      <c r="G156" t="n">
-        <v>1000</v>
-      </c>
       <c r="H156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I156" t="n">
         <v>-207</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-13.9</v>
       </c>
     </row>
     <row r="157">
@@ -4820,27 +6230,36 @@
         <v>5</v>
       </c>
       <c r="B157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C157" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>775</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>-11.6</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>1020</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>(1000-205j)</t>
         </is>
       </c>
-      <c r="G157" t="n">
-        <v>1000</v>
-      </c>
       <c r="H157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I157" t="n">
         <v>-205</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-13.9</v>
       </c>
     </row>
     <row r="158">
@@ -4848,27 +6267,36 @@
         <v>5</v>
       </c>
       <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>780</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>-11.5</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>1020</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>(1000-204j)</t>
         </is>
       </c>
-      <c r="G158" t="n">
-        <v>1000</v>
-      </c>
       <c r="H158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I158" t="n">
         <v>-204</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="159">
@@ -4876,27 +6304,36 @@
         <v>5</v>
       </c>
       <c r="B159" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C159" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>785</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>-11.5</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>1020</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>(1000-203j)</t>
         </is>
       </c>
-      <c r="G159" t="n">
-        <v>1000</v>
-      </c>
       <c r="H159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I159" t="n">
         <v>-203</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="160">
@@ -4904,27 +6341,36 @@
         <v>5</v>
       </c>
       <c r="B160" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C160" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>790</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>-11.4</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>1020</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>(1000-201j)</t>
         </is>
       </c>
-      <c r="G160" t="n">
-        <v>1000</v>
-      </c>
       <c r="H160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I160" t="n">
         <v>-201</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-14.1</v>
       </c>
     </row>
     <row r="161">
@@ -4932,27 +6378,36 @@
         <v>5</v>
       </c>
       <c r="B161" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C161" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>795</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>-11.3</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>1020</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>(1000-200j)</t>
         </is>
       </c>
-      <c r="G161" t="n">
-        <v>1000</v>
-      </c>
       <c r="H161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I161" t="n">
         <v>-200</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-14.1</v>
       </c>
     </row>
     <row r="162">
@@ -4960,27 +6415,36 @@
         <v>5</v>
       </c>
       <c r="B162" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="C162" t="n">
         <v>0.0049</v>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>800</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>-11.3</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>1020</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>(1000-199j)</t>
         </is>
       </c>
-      <c r="G162" t="n">
-        <v>1000</v>
-      </c>
       <c r="H162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I162" t="n">
         <v>-199</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-14.2</v>
       </c>
     </row>
     <row r="163">
@@ -4988,27 +6452,36 @@
         <v>5</v>
       </c>
       <c r="B163" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C163" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>805</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>-11.2</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>1020</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>(1000-198j)</t>
         </is>
       </c>
-      <c r="G163" t="n">
-        <v>1000</v>
-      </c>
       <c r="H163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I163" t="n">
         <v>-198</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-14.2</v>
       </c>
     </row>
     <row r="164">
@@ -5016,27 +6489,36 @@
         <v>5</v>
       </c>
       <c r="B164" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="C164" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>810</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>-11.1</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>1020</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>(1000-196j)</t>
         </is>
       </c>
-      <c r="G164" t="n">
-        <v>1000</v>
-      </c>
       <c r="H164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I164" t="n">
         <v>-196</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-14.3</v>
       </c>
     </row>
     <row r="165">
@@ -5044,27 +6526,36 @@
         <v>5</v>
       </c>
       <c r="B165" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="C165" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>815</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>-11</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>1020</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>(1000-195j)</t>
         </is>
       </c>
-      <c r="G165" t="n">
-        <v>1000</v>
-      </c>
       <c r="H165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I165" t="n">
         <v>-195</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-14.3</v>
       </c>
     </row>
     <row r="166">
@@ -5072,27 +6563,36 @@
         <v>5</v>
       </c>
       <c r="B166" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="C166" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>820</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>-11</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>1020</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>(1000-194j)</t>
         </is>
       </c>
-      <c r="G166" t="n">
-        <v>1000</v>
-      </c>
       <c r="H166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I166" t="n">
         <v>-194</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-14.4</v>
       </c>
     </row>
     <row r="167">
@@ -5100,27 +6600,36 @@
         <v>5</v>
       </c>
       <c r="B167" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="C167" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>825</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>1020</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>(1000-193j)</t>
         </is>
       </c>
-      <c r="G167" t="n">
-        <v>1000</v>
-      </c>
       <c r="H167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I167" t="n">
         <v>-193</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-14.5</v>
       </c>
     </row>
     <row r="168">
@@ -5128,27 +6637,36 @@
         <v>5</v>
       </c>
       <c r="B168" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C168" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>830</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>-10.9</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>1020</v>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>(1000-192j)</t>
         </is>
       </c>
-      <c r="G168" t="n">
-        <v>1000</v>
-      </c>
       <c r="H168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I168" t="n">
         <v>-192</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-14.5</v>
       </c>
     </row>
     <row r="169">
@@ -5156,27 +6674,36 @@
         <v>5</v>
       </c>
       <c r="B169" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="C169" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>835</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>-10.8</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>1020</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>(1000-191j)</t>
         </is>
       </c>
-      <c r="G169" t="n">
-        <v>1000</v>
-      </c>
       <c r="H169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I169" t="n">
         <v>-191</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="170">
@@ -5184,27 +6711,36 @@
         <v>5</v>
       </c>
       <c r="B170" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="C170" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>840</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>-10.7</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>1020</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>(1000-189j)</t>
         </is>
       </c>
-      <c r="G170" t="n">
-        <v>1000</v>
-      </c>
       <c r="H170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I170" t="n">
         <v>-189</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="171">
@@ -5212,27 +6748,36 @@
         <v>5</v>
       </c>
       <c r="B171" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C171" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>845</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>-10.7</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>1020</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>(1000-188j)</t>
         </is>
       </c>
-      <c r="G171" t="n">
-        <v>1000</v>
-      </c>
       <c r="H171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I171" t="n">
         <v>-188</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-14.7</v>
       </c>
     </row>
     <row r="172">
@@ -5240,27 +6785,36 @@
         <v>5</v>
       </c>
       <c r="B172" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C172" t="n">
         <v>0.00491</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>850</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>-10.6</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>1020</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>(1000-187j)</t>
         </is>
       </c>
-      <c r="G172" t="n">
-        <v>1000</v>
-      </c>
       <c r="H172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I172" t="n">
         <v>-187</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-14.7</v>
       </c>
     </row>
     <row r="173">
@@ -5268,27 +6822,36 @@
         <v>5</v>
       </c>
       <c r="B173" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>855</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>-10.5</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>1020</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>(1000-186j)</t>
         </is>
       </c>
-      <c r="G173" t="n">
-        <v>1000</v>
-      </c>
       <c r="H173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I173" t="n">
         <v>-186</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-14.8</v>
       </c>
     </row>
     <row r="174">
@@ -5296,27 +6859,36 @@
         <v>5</v>
       </c>
       <c r="B174" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C174" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>860</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>-10.5</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>1020</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>(1000-185j)</t>
         </is>
       </c>
-      <c r="G174" t="n">
-        <v>1000</v>
-      </c>
       <c r="H174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I174" t="n">
         <v>-185</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-14.8</v>
       </c>
     </row>
     <row r="175">
@@ -5324,27 +6896,36 @@
         <v>5</v>
       </c>
       <c r="B175" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="C175" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>865</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>-10.4</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>1020</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>(1000-184j)</t>
         </is>
       </c>
-      <c r="G175" t="n">
-        <v>1000</v>
-      </c>
       <c r="H175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I175" t="n">
         <v>-184</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-14.8</v>
       </c>
     </row>
     <row r="176">
@@ -5352,27 +6933,36 @@
         <v>5</v>
       </c>
       <c r="B176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C176" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>870</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>-10.4</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>1020</v>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>(1000-183j)</t>
         </is>
       </c>
-      <c r="G176" t="n">
-        <v>1000</v>
-      </c>
       <c r="H176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I176" t="n">
         <v>-183</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-14.9</v>
       </c>
     </row>
     <row r="177">
@@ -5380,27 +6970,36 @@
         <v>5</v>
       </c>
       <c r="B177" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="C177" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>875</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>-10.3</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>1020</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>(1000-182j)</t>
         </is>
       </c>
-      <c r="G177" t="n">
-        <v>1000</v>
-      </c>
       <c r="H177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I177" t="n">
         <v>-182</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-14.9</v>
       </c>
     </row>
     <row r="178">
@@ -5408,27 +7007,36 @@
         <v>5</v>
       </c>
       <c r="B178" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C178" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>880</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>-10.3</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>1020</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>(1000-181j)</t>
         </is>
       </c>
-      <c r="G178" t="n">
-        <v>1000</v>
-      </c>
       <c r="H178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I178" t="n">
         <v>-181</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="179">
@@ -5436,27 +7044,36 @@
         <v>5</v>
       </c>
       <c r="B179" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="C179" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>885</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>-10.2</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>1020</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>(1000-180j)</t>
         </is>
       </c>
-      <c r="G179" t="n">
-        <v>1000</v>
-      </c>
       <c r="H179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I179" t="n">
         <v>-180</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="180">
@@ -5464,27 +7081,36 @@
         <v>5</v>
       </c>
       <c r="B180" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C180" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>890</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>-10.1</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>1020</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>(1000-179j)</t>
         </is>
       </c>
-      <c r="G180" t="n">
-        <v>1000</v>
-      </c>
       <c r="H180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I180" t="n">
         <v>-179</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-15.1</v>
       </c>
     </row>
     <row r="181">
@@ -5492,27 +7118,36 @@
         <v>5</v>
       </c>
       <c r="B181" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C181" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>895</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>-10.1</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>1020</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>(1000-178j)</t>
         </is>
       </c>
-      <c r="G181" t="n">
-        <v>1000</v>
-      </c>
       <c r="H181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I181" t="n">
         <v>-178</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-15.1</v>
       </c>
     </row>
     <row r="182">
@@ -5520,27 +7155,36 @@
         <v>5</v>
       </c>
       <c r="B182" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="C182" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>900</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>-10</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>1020</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>(1000-177j)</t>
         </is>
       </c>
-      <c r="G182" t="n">
-        <v>1000</v>
-      </c>
       <c r="H182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I182" t="n">
         <v>-177</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-15.2</v>
       </c>
     </row>
     <row r="183">
@@ -5548,27 +7192,36 @@
         <v>5</v>
       </c>
       <c r="B183" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="C183" t="n">
         <v>0.00492</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>905</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>-9.970000000000001</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>1020</v>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>(1000-176j)</t>
         </is>
       </c>
-      <c r="G183" t="n">
-        <v>1000</v>
-      </c>
       <c r="H183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I183" t="n">
         <v>-176</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-15.2</v>
       </c>
     </row>
     <row r="184">
@@ -5576,27 +7229,36 @@
         <v>5</v>
       </c>
       <c r="B184" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="C184" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C184" t="n">
+      <c r="D184" t="n">
         <v>910</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>-9.92</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>1020</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>(1000-175j)</t>
         </is>
       </c>
-      <c r="G184" t="n">
-        <v>1000</v>
-      </c>
       <c r="H184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I184" t="n">
         <v>-175</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-15.3</v>
       </c>
     </row>
     <row r="185">
@@ -5604,27 +7266,36 @@
         <v>5</v>
       </c>
       <c r="B185" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="C185" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C185" t="n">
+      <c r="D185" t="n">
         <v>915</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>-9.869999999999999</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>1020</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>(1000-174j)</t>
         </is>
       </c>
-      <c r="G185" t="n">
-        <v>1000</v>
-      </c>
       <c r="H185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I185" t="n">
         <v>-174</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-15.3</v>
       </c>
     </row>
     <row r="186">
@@ -5632,27 +7303,36 @@
         <v>5</v>
       </c>
       <c r="B186" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="C186" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>920</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>-9.81</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>1010</v>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>(1000-173j)</t>
         </is>
       </c>
-      <c r="G186" t="n">
-        <v>1000</v>
-      </c>
       <c r="H186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I186" t="n">
         <v>-173</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-15.4</v>
       </c>
     </row>
     <row r="187">
@@ -5660,27 +7340,36 @@
         <v>5</v>
       </c>
       <c r="B187" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="C187" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>925</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>-9.76</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>1010</v>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>(1000-172j)</t>
         </is>
       </c>
-      <c r="G187" t="n">
-        <v>1000</v>
-      </c>
       <c r="H187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I187" t="n">
         <v>-172</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-15.4</v>
       </c>
     </row>
     <row r="188">
@@ -5688,27 +7377,36 @@
         <v>5</v>
       </c>
       <c r="B188" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="C188" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C188" t="n">
+      <c r="D188" t="n">
         <v>930</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>-9.710000000000001</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>1010</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>(1000-171j)</t>
         </is>
       </c>
-      <c r="G188" t="n">
-        <v>1000</v>
-      </c>
       <c r="H188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I188" t="n">
         <v>-171</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-15.5</v>
       </c>
     </row>
     <row r="189">
@@ -5716,27 +7414,36 @@
         <v>5</v>
       </c>
       <c r="B189" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="C189" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>935</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>-9.66</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>1010</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>(1000-170j)</t>
         </is>
       </c>
-      <c r="G189" t="n">
-        <v>1000</v>
-      </c>
       <c r="H189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I189" t="n">
         <v>-170</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-15.5</v>
       </c>
     </row>
     <row r="190">
@@ -5744,27 +7451,36 @@
         <v>5</v>
       </c>
       <c r="B190" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="C190" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C190" t="n">
+      <c r="D190" t="n">
         <v>940</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>1010</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>(1000-169j)</t>
         </is>
       </c>
-      <c r="G190" t="n">
-        <v>1000</v>
-      </c>
       <c r="H190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I190" t="n">
         <v>-169</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-15.5</v>
       </c>
     </row>
     <row r="191">
@@ -5772,27 +7488,36 @@
         <v>5</v>
       </c>
       <c r="B191" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C191" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>945</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>-9.56</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>1010</v>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>(1000-168j)</t>
         </is>
       </c>
-      <c r="G191" t="n">
-        <v>1000</v>
-      </c>
       <c r="H191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I191" t="n">
         <v>-168</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-15.6</v>
       </c>
     </row>
     <row r="192">
@@ -5800,27 +7525,36 @@
         <v>5</v>
       </c>
       <c r="B192" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="C192" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>950</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>-9.51</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>1010</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>(1000-168j)</t>
         </is>
       </c>
-      <c r="G192" t="n">
-        <v>1000</v>
-      </c>
       <c r="H192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I192" t="n">
         <v>-168</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-15.6</v>
       </c>
     </row>
     <row r="193">
@@ -5828,27 +7562,36 @@
         <v>5</v>
       </c>
       <c r="B193" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="C193" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>955</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>-9.460000000000001</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>1010</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>(1000-167j)</t>
         </is>
       </c>
-      <c r="G193" t="n">
-        <v>1000</v>
-      </c>
       <c r="H193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I193" t="n">
         <v>-167</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-15.7</v>
       </c>
     </row>
     <row r="194">
@@ -5856,27 +7599,36 @@
         <v>5</v>
       </c>
       <c r="B194" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="C194" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>960</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>-9.41</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>1010</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>(1000-166j)</t>
         </is>
       </c>
-      <c r="G194" t="n">
-        <v>1000</v>
-      </c>
       <c r="H194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I194" t="n">
         <v>-166</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-15.7</v>
       </c>
     </row>
     <row r="195">
@@ -5884,27 +7636,36 @@
         <v>5</v>
       </c>
       <c r="B195" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="C195" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>965</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>-9.369999999999999</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>1010</v>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>(1000-165j)</t>
         </is>
       </c>
-      <c r="G195" t="n">
-        <v>1000</v>
-      </c>
       <c r="H195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I195" t="n">
         <v>-165</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-15.8</v>
       </c>
     </row>
     <row r="196">
@@ -5912,27 +7673,36 @@
         <v>5</v>
       </c>
       <c r="B196" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C196" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>970</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>-9.32</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>1010</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>(1000-164j)</t>
         </is>
       </c>
-      <c r="G196" t="n">
-        <v>1000</v>
-      </c>
       <c r="H196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I196" t="n">
         <v>-164</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-15.8</v>
       </c>
     </row>
     <row r="197">
@@ -5940,27 +7710,36 @@
         <v>5</v>
       </c>
       <c r="B197" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="C197" t="n">
         <v>0.00493</v>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>975</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>-9.27</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>1010</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>(1000-163j)</t>
         </is>
       </c>
-      <c r="G197" t="n">
-        <v>1000</v>
-      </c>
       <c r="H197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I197" t="n">
         <v>-163</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-15.9</v>
       </c>
     </row>
     <row r="198">
@@ -5968,27 +7747,36 @@
         <v>5</v>
       </c>
       <c r="B198" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="C198" t="n">
         <v>0.00494</v>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
         <v>980</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>-9.220000000000001</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>1010</v>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>(1000-162j)</t>
         </is>
       </c>
-      <c r="G198" t="n">
-        <v>1000</v>
-      </c>
       <c r="H198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I198" t="n">
         <v>-162</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-15.9</v>
       </c>
     </row>
     <row r="199">
@@ -5996,27 +7784,36 @@
         <v>5</v>
       </c>
       <c r="B199" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="C199" t="n">
         <v>0.00494</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>985</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>-9.18</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>1010</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>(1000-162j)</t>
         </is>
       </c>
-      <c r="G199" t="n">
-        <v>1000</v>
-      </c>
       <c r="H199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I199" t="n">
         <v>-162</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-15.9</v>
       </c>
     </row>
     <row r="200">
@@ -6024,27 +7821,36 @@
         <v>5</v>
       </c>
       <c r="B200" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="C200" t="n">
         <v>0.00494</v>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>990</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>-9.130000000000001</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>1010</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>(1000-161j)</t>
         </is>
       </c>
-      <c r="G200" t="n">
-        <v>1000</v>
-      </c>
       <c r="H200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I200" t="n">
         <v>-161</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="201">
@@ -6052,27 +7858,36 @@
         <v>5</v>
       </c>
       <c r="B201" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C201" t="n">
         <v>0.00494</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>995</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>-9.09</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>1010</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>(1000-160j)</t>
         </is>
       </c>
-      <c r="G201" t="n">
-        <v>1000</v>
-      </c>
       <c r="H201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I201" t="n">
         <v>-160</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-16</v>
       </c>
     </row>
   </sheetData>
